--- a/python/DataSets/rezh_geo.xlsx
+++ b/python/DataSets/rezh_geo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="355">
   <si>
     <t>ADRESS</t>
   </si>
@@ -893,6 +893,9 @@
   </si>
   <si>
     <t>Nonbank credit organization "MOBI. Money" Limited Liability Company NCO "MOBI. Money" LLC</t>
+  </si>
+  <si>
+    <t>ООО НКО "Расчетные Решения»</t>
   </si>
   <si>
     <t>область Свердловская, городской округ Режевской, город Реж, улица Машиностроителей, д 3</t>
@@ -1117,7 +1120,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -1132,13 +1135,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -1165,28 +1168,28 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1195,28 +1198,28 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1233,7 +1236,7 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1242,28 +1245,28 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1283,8 +1286,8 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1435,9 +1438,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1517,7 +1520,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1545,10 +1548,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1804,9 +1807,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -2094,7 +2097,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2122,10 +2125,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2382,7 +2385,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="8" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="2" width="8.85156" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5625" style="1" customWidth="1"/>
+    <col min="5" max="8" width="8.85156" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5217,7 +5223,9 @@
       <c r="B115" t="s" s="8">
         <v>175</v>
       </c>
-      <c r="C115" s="10"/>
+      <c r="C115" t="s" s="9">
+        <v>293</v>
+      </c>
       <c r="D115" t="s" s="9">
         <v>281</v>
       </c>
@@ -5237,7 +5245,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="s" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C116" t="s" s="9">
         <v>280</v>
@@ -5250,10 +5258,10 @@
       </c>
       <c r="F116" s="10"/>
       <c r="G116" t="s" s="9">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H116" t="s" s="9">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="117" ht="13.55" customHeight="1">
@@ -5261,10 +5269,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="s" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C117" t="s" s="9">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D117" t="s" s="9">
         <v>281</v>
@@ -5274,10 +5282,10 @@
       </c>
       <c r="F117" s="10"/>
       <c r="G117" t="s" s="9">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H117" t="s" s="9">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="118" ht="13.55" customHeight="1">
@@ -5285,10 +5293,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="s" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C118" t="s" s="9">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D118" t="s" s="9">
         <v>281</v>
@@ -5309,10 +5317,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="s" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C119" t="s" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D119" t="s" s="9">
         <v>281</v>
@@ -5321,7 +5329,7 @@
         <v>282</v>
       </c>
       <c r="F119" t="s" s="9">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G119" t="s" s="9">
         <v>114</v>
@@ -5335,10 +5343,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="s" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C120" t="s" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D120" t="s" s="9">
         <v>281</v>
@@ -5347,7 +5355,7 @@
         <v>282</v>
       </c>
       <c r="F120" t="s" s="9">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G120" t="s" s="9">
         <v>240</v>
@@ -5361,10 +5369,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="s" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C121" t="s" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D121" t="s" s="9">
         <v>281</v>
@@ -5373,7 +5381,7 @@
         <v>282</v>
       </c>
       <c r="F121" t="s" s="9">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G121" t="s" s="9">
         <v>237</v>
@@ -5387,10 +5395,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="s" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C122" t="s" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D122" t="s" s="9">
         <v>281</v>
@@ -5399,7 +5407,7 @@
         <v>282</v>
       </c>
       <c r="F122" t="s" s="9">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G122" t="s" s="9">
         <v>234</v>
@@ -5413,10 +5421,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="s" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C123" t="s" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D123" t="s" s="9">
         <v>281</v>
@@ -5425,7 +5433,7 @@
         <v>282</v>
       </c>
       <c r="F123" t="s" s="9">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G123" t="s" s="9">
         <v>177</v>
@@ -5439,10 +5447,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="s" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C124" t="s" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D124" t="s" s="9">
         <v>281</v>
@@ -5451,7 +5459,7 @@
         <v>282</v>
       </c>
       <c r="F124" t="s" s="9">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G124" t="s" s="9">
         <v>65</v>
@@ -5465,10 +5473,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="s" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C125" t="s" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D125" t="s" s="9">
         <v>281</v>
@@ -5477,13 +5485,13 @@
         <v>282</v>
       </c>
       <c r="F125" t="s" s="9">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G125" t="s" s="9">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H125" t="s" s="9">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="126" ht="13.55" customHeight="1">
@@ -5491,10 +5499,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="s" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C126" t="s" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D126" t="s" s="9">
         <v>281</v>
@@ -5503,7 +5511,7 @@
         <v>282</v>
       </c>
       <c r="F126" t="s" s="9">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G126" t="s" s="9">
         <v>75</v>
@@ -5517,10 +5525,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="s" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C127" t="s" s="9">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D127" t="s" s="9">
         <v>281</v>
@@ -5541,10 +5549,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="s" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C128" t="s" s="9">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D128" t="s" s="9">
         <v>281</v>
@@ -5567,10 +5575,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="s" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C129" t="s" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D129" t="s" s="9">
         <v>281</v>
@@ -5579,7 +5587,7 @@
         <v>282</v>
       </c>
       <c r="F129" t="s" s="9">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G129" t="s" s="9">
         <v>243</v>
@@ -5593,10 +5601,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="s" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C130" t="s" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D130" t="s" s="9">
         <v>281</v>
@@ -5605,7 +5613,7 @@
         <v>282</v>
       </c>
       <c r="F130" t="s" s="9">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G130" t="s" s="9">
         <v>246</v>
@@ -5619,10 +5627,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="s" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C131" t="s" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D131" t="s" s="9">
         <v>281</v>
@@ -5631,7 +5639,7 @@
         <v>282</v>
       </c>
       <c r="F131" t="s" s="9">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G131" t="s" s="9">
         <v>249</v>
@@ -5645,10 +5653,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="s" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C132" t="s" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D132" t="s" s="9">
         <v>281</v>
@@ -5657,7 +5665,7 @@
         <v>282</v>
       </c>
       <c r="F132" t="s" s="9">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G132" t="s" s="9">
         <v>252</v>
@@ -5671,10 +5679,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="s" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C133" t="s" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D133" t="s" s="9">
         <v>281</v>
@@ -5683,13 +5691,13 @@
         <v>282</v>
       </c>
       <c r="F133" t="s" s="9">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G133" t="s" s="9">
         <v>255</v>
       </c>
       <c r="H133" t="s" s="9">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="134" ht="13.55" customHeight="1">
@@ -5697,10 +5705,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="s" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C134" t="s" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D134" t="s" s="9">
         <v>281</v>
@@ -5709,7 +5717,7 @@
         <v>282</v>
       </c>
       <c r="F134" t="s" s="9">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G134" t="s" s="9">
         <v>257</v>
@@ -5723,10 +5731,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="s" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C135" t="s" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D135" t="s" s="9">
         <v>281</v>
@@ -5735,7 +5743,7 @@
         <v>282</v>
       </c>
       <c r="F135" t="s" s="9">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G135" t="s" s="9">
         <v>260</v>
@@ -5749,10 +5757,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="s" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C136" t="s" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D136" t="s" s="9">
         <v>281</v>
@@ -5761,7 +5769,7 @@
         <v>282</v>
       </c>
       <c r="F136" t="s" s="9">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G136" t="s" s="9">
         <v>263</v>
@@ -5775,23 +5783,23 @@
         <v>135</v>
       </c>
       <c r="B137" t="s" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C137" t="s" s="9">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D137" t="s" s="9">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E137" t="s" s="9">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F137" s="10"/>
       <c r="G137" t="s" s="9">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H137" t="s" s="9">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="138" ht="13.55" customHeight="1">
@@ -5799,23 +5807,23 @@
         <v>136</v>
       </c>
       <c r="B138" t="s" s="8">
+        <v>331</v>
+      </c>
+      <c r="C138" t="s" s="9">
+        <v>332</v>
+      </c>
+      <c r="D138" t="s" s="9">
+        <v>329</v>
+      </c>
+      <c r="E138" t="s" s="9">
         <v>330</v>
-      </c>
-      <c r="C138" t="s" s="9">
-        <v>331</v>
-      </c>
-      <c r="D138" t="s" s="9">
-        <v>328</v>
-      </c>
-      <c r="E138" t="s" s="9">
-        <v>329</v>
       </c>
       <c r="F138" s="10"/>
       <c r="G138" t="s" s="9">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H138" t="s" s="9">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="139" ht="13.55" customHeight="1">
@@ -5823,16 +5831,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="s" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C139" t="s" s="9">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D139" t="s" s="9">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E139" t="s" s="9">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F139" s="10"/>
       <c r="G139" t="s" s="9">
@@ -5847,16 +5855,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="s" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C140" t="s" s="9">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D140" t="s" s="9">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E140" t="s" s="9">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F140" s="10"/>
       <c r="G140" t="s" s="9">
@@ -5871,23 +5879,23 @@
         <v>139</v>
       </c>
       <c r="B141" t="s" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C141" t="s" s="9">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D141" t="s" s="9">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E141" t="s" s="9">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F141" s="10"/>
       <c r="G141" t="s" s="9">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H141" t="s" s="9">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="142" ht="13.55" customHeight="1">
@@ -5895,16 +5903,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="s" s="8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C142" t="s" s="9">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D142" t="s" s="9">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E142" t="s" s="9">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F142" s="10"/>
       <c r="G142" t="s" s="9">
@@ -5919,16 +5927,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="s" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C143" t="s" s="9">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D143" t="s" s="9">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E143" t="s" s="9">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F143" s="10"/>
       <c r="G143" t="s" s="9">
@@ -5943,16 +5951,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="s" s="8">
+        <v>345</v>
+      </c>
+      <c r="C144" t="s" s="9">
+        <v>346</v>
+      </c>
+      <c r="D144" t="s" s="9">
+        <v>343</v>
+      </c>
+      <c r="E144" t="s" s="9">
         <v>344</v>
-      </c>
-      <c r="C144" t="s" s="9">
-        <v>345</v>
-      </c>
-      <c r="D144" t="s" s="9">
-        <v>342</v>
-      </c>
-      <c r="E144" t="s" s="9">
-        <v>343</v>
       </c>
       <c r="F144" s="10"/>
       <c r="G144" t="s" s="9">
@@ -5967,23 +5975,23 @@
         <v>143</v>
       </c>
       <c r="B145" t="s" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C145" t="s" s="9">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D145" t="s" s="9">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E145" t="s" s="9">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F145" s="10"/>
       <c r="G145" t="s" s="9">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H145" t="s" s="9">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="146" ht="13.55" customHeight="1">
@@ -5991,23 +5999,23 @@
         <v>144</v>
       </c>
       <c r="B146" t="s" s="8">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C146" t="s" s="9">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D146" t="s" s="9">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E146" t="s" s="9">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F146" s="10"/>
       <c r="G146" t="s" s="9">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H146" t="s" s="9">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/python/DataSets/rezh_geo.xlsx
+++ b/python/DataSets/rezh_geo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="427">
   <si>
     <t>ADRESS</t>
   </si>
@@ -34,6 +34,9 @@
     <t>LON</t>
   </si>
   <si>
+    <t>ADRESS_NORM</t>
+  </si>
+  <si>
     <t>623750, Свердловская область, г. Реж, ул. Ленина, д. 1, помещение №37</t>
   </si>
   <si>
@@ -46,10 +49,13 @@
     <t>подразделения КО, включая ППКО</t>
   </si>
   <si>
-    <t>57.373792</t>
-  </si>
-  <si>
-    <t>61.393822</t>
+    <t>57.370559</t>
+  </si>
+  <si>
+    <t>61.380841</t>
+  </si>
+  <si>
+    <t>Россия, Свердловская область, Реж, улица Ленина, 37</t>
   </si>
   <si>
     <t>623750, Свердловская обл., г. Реж, ул. Ленина, д.70/3</t>
@@ -64,6 +70,9 @@
     <t>61.374014</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Ленина, 70к3</t>
+  </si>
+  <si>
     <t>623750, Свердловская обл., г. Реж, ул. Ленина, д. 70, корп. 3</t>
   </si>
   <si>
@@ -82,22 +91,22 @@
     <t>61.370142</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Максима Горького, 19</t>
+  </si>
+  <si>
     <t>623750, Свердловская область, г. Реж, улица Советская, дом №2, встроенное нежилое помещение №111</t>
   </si>
   <si>
-    <t>57.373326</t>
-  </si>
-  <si>
-    <t>61.395178</t>
-  </si>
-  <si>
-    <t>623750,  г. Реж Свердловской области,  улица  Максима Горького, дом №19  Помещения: №101-109.112-115</t>
-  </si>
-  <si>
-    <t>27.237647</t>
-  </si>
-  <si>
-    <t>87.215967</t>
+    <t>57.36688</t>
+  </si>
+  <si>
+    <t>61.421688</t>
+  </si>
+  <si>
+    <t>Россия, Свердловская область, Реж, Советская улица, 111</t>
+  </si>
+  <si>
+    <t>623750,  г. Реж Свердловской области,  улица  Максима Горького, дом №19</t>
   </si>
   <si>
     <t>623750, Свердловская обл., г. Реж, ул. Энгельса, д.6</t>
@@ -112,6 +121,9 @@
     <t>61.388558</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Энгельса, 6</t>
+  </si>
+  <si>
     <t>623742, Свердловская обл., Режевской р-н, с. Глинское, пер. Космонавтов, 2</t>
   </si>
   <si>
@@ -121,13 +133,19 @@
     <t>61.416127</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Режевской городской округ, село Глинское, переулок Космонавтов, 2</t>
+  </si>
+  <si>
     <t>623736, Свердловская область, Режевской район, с. Черемисское, ул. Молодежная, 11</t>
   </si>
   <si>
-    <t>57.442109</t>
-  </si>
-  <si>
-    <t>60.899659</t>
+    <t>57.441605</t>
+  </si>
+  <si>
+    <t>60.90194</t>
+  </si>
+  <si>
+    <t>Россия, Свердловская область, Режевской городской округ, село Черемисское, Молодёжная улица, 13Ж/2</t>
   </si>
   <si>
     <t>623750, Свердловская обл., Режевской 
@@ -149,6 +167,9 @@
     <t>61.389196</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Ленина, 10</t>
+  </si>
+  <si>
     <t>623750, Свердловская обл., Режевской 
 р-н, г. Реж, ул. Большевиков, д. 9</t>
   </si>
@@ -159,6 +180,9 @@
     <t>61.389932</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Большевиков, 9</t>
+  </si>
+  <si>
     <t>624860, Свердловская область, г. Реж, 
 ул. Ленина, д. 33</t>
   </si>
@@ -172,6 +196,9 @@
     <t>61.383707</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Ленина, 33</t>
+  </si>
+  <si>
     <t>СВЕРДЛОВСКАЯ ОБЛ, РЕЖЕВСКОЙ Р-Н, Г РЕЖ, УЛ ЛЕНИНА, 33</t>
   </si>
   <si>
@@ -196,6 +223,9 @@
     <t>61.382863</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Ленина, 30</t>
+  </si>
+  <si>
     <t>Свердловская обл.,г.о.Режевской,г.Реж,ул.Ленина,д.1</t>
   </si>
   <si>
@@ -205,6 +235,15 @@
     <t>ТЦ 'Березка'</t>
   </si>
   <si>
+    <t>57.373792</t>
+  </si>
+  <si>
+    <t>61.393822</t>
+  </si>
+  <si>
+    <t>Россия, Свердловская область, Реж, улица Ленина, 1</t>
+  </si>
+  <si>
     <t>Свердловская обл.,г.о.Режевской,г.Реж,ул.Ленина,д.5</t>
   </si>
   <si>
@@ -217,12 +256,24 @@
     <t>61.390651</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Ленина, 5</t>
+  </si>
+  <si>
     <t>обл Свердловская, р-н Режевской, г Реж, ул Советская, ДОМ 2,</t>
   </si>
   <si>
     <t>ВСП7003/0522</t>
   </si>
   <si>
+    <t>57.373326</t>
+  </si>
+  <si>
+    <t>61.395178</t>
+  </si>
+  <si>
+    <t>Россия, Свердловская область, Реж, Советская улица, 2</t>
+  </si>
+  <si>
     <t>обл Свердловская, р-н Режевской, г Реж, ул Калинина, ДОМ 14, к. а</t>
   </si>
   <si>
@@ -235,6 +286,9 @@
     <t>61.339528</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Калинина, 14А</t>
+  </si>
+  <si>
     <t>обл Свердловская, р-н Режевской, г Реж, ул Ленина, стр. 23</t>
   </si>
   <si>
@@ -247,6 +301,9 @@
     <t>61.386159</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Ленина, 23</t>
+  </si>
+  <si>
     <t>обл Свердловская, р-н Режевской, г Реж, ул Красноармейская, стр. 16</t>
   </si>
   <si>
@@ -259,6 +316,9 @@
     <t>61.391109</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, Красноармейская улица, 16</t>
+  </si>
+  <si>
     <t>обл Свердловская, р-н Режевской, г Реж, ул П.Морозова, ДОМ 14,</t>
   </si>
   <si>
@@ -271,6 +331,9 @@
     <t>61.396229</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Павлика Морозова, 14</t>
+  </si>
+  <si>
     <t>обл Свердловская, р-н Режевской, г Реж, ул М.Горького, д. 19,</t>
   </si>
   <si>
@@ -289,6 +352,9 @@
     <t>61.335396</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Строителей, 1</t>
+  </si>
+  <si>
     <t>обл Свердловская, р-н Режевской, г Реж, ул Советская,  131,</t>
   </si>
   <si>
@@ -298,6 +364,9 @@
     <t>61.428551</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, Советская улица, 131</t>
+  </si>
+  <si>
     <t>Свердловская область,Режевской,г Реж,ул Энгельса,подв.6</t>
   </si>
   <si>
@@ -316,6 +385,9 @@
     <t>61.394675</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Чапаева, 24А</t>
+  </si>
+  <si>
     <t>Свердловская обл, Реж г, Ленина ул, 1</t>
   </si>
   <si>
@@ -334,6 +406,9 @@
     <t>61.366989</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, Спортивная улица, 12</t>
+  </si>
+  <si>
     <t>Свердловская область, Режевской район, город Реж, улица Калинина, дом 19 корпус в</t>
   </si>
   <si>
@@ -343,6 +418,9 @@
     <t>61.337363</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Калинина, 19В</t>
+  </si>
+  <si>
     <t>Свердловская область, городской округ Режевской, город Реж, улица П.Морозова, дом 18 корпус 1</t>
   </si>
   <si>
@@ -352,6 +430,9 @@
     <t>61.398879</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Павлика Морозова, 18к1</t>
+  </si>
+  <si>
     <t>СВЕРДЛОВСКАЯ ОБЛ,Р-Н РЕЖЕВСКОЙ,Г РЕЖ,УЛ ЛЕНИНА,СТР.7</t>
   </si>
   <si>
@@ -364,6 +445,9 @@
     <t>61.389878</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Ленина, 7</t>
+  </si>
+  <si>
     <t>Свердловская обл,Режевской р-н,г Реж,ул Ленина,70,3</t>
   </si>
   <si>
@@ -388,6 +472,9 @@
     <t>61.423547</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, Советский переулок, 44</t>
+  </si>
+  <si>
     <t>Свердловская обл.,г.Реж,ул.Фрунзе,д.17</t>
   </si>
   <si>
@@ -403,6 +490,9 @@
     <t>61.378775</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Фрунзе, 17</t>
+  </si>
+  <si>
     <t>обл.Свердловская,р-н Режевской,г.Реж,ул.П.Морозова,д.14</t>
   </si>
   <si>
@@ -460,6 +550,9 @@
     <t>61.366729</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, переулок Калинина, 14</t>
+  </si>
+  <si>
     <t>Свердловская обл,Режевской р-н,г Реж,ул П.Морозова,60</t>
   </si>
   <si>
@@ -472,6 +565,9 @@
     <t>61.396661</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Павлика Морозова, 60</t>
+  </si>
+  <si>
     <t>Свердловская обл,Режевской р-н,г Реж,ул Красноармейская,21</t>
   </si>
   <si>
@@ -484,6 +580,9 @@
     <t>61.384318</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, Красноармейская улица, 21</t>
+  </si>
+  <si>
     <t>(доп.офис)</t>
   </si>
   <si>
@@ -502,6 +601,9 @@
     <t>61.382279</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Ленина, 35</t>
+  </si>
+  <si>
     <t>обл Свердловская, р-н Режевской, с Липовское, ул Ленина, ДОМ 36,</t>
   </si>
   <si>
@@ -514,6 +616,9 @@
     <t>61.171112</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Режевской городской округ, село Липовское, улица Ленина</t>
+  </si>
+  <si>
     <t>Свердловская обл,Режевской р-н,с Липовское</t>
   </si>
   <si>
@@ -541,6 +646,9 @@
     <t>61.40011</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, Заводская улица, 3</t>
+  </si>
+  <si>
     <t>Свердловская обл, г Реж, ул Ленина, д 26</t>
   </si>
   <si>
@@ -553,6 +661,9 @@
     <t>61.385252</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Ленина, 26</t>
+  </si>
+  <si>
     <t>СВЕРДЛОВСКАЯ ОБЛ.,РЕЖЕВСКОЙ р-н,РЕЖ г.,КАЛИНИНА ул.,47 ДОМ</t>
   </si>
   <si>
@@ -568,6 +679,9 @@
     <t>61.349158</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Калинина, 47</t>
+  </si>
+  <si>
     <t>СВЕРДЛОВСКАЯ ОБЛ.,РЕЖЕВСКОЙ р-н,РЕЖ г.,СОВЕТСКАЯ ул.,2А ДОМ</t>
   </si>
   <si>
@@ -577,6 +691,9 @@
     <t>61.394334</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, Советская улица, 2А</t>
+  </si>
+  <si>
     <t>область Свердловская, городской округ Режевской, город Реж, улица Ленина, стр 17</t>
   </si>
   <si>
@@ -586,6 +703,9 @@
     <t>61.387498</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Ленина, 17</t>
+  </si>
+  <si>
     <t>область Свердловская, городской округ Режевской, город Реж, улица Калинина, д 30 к а</t>
   </si>
   <si>
@@ -595,6 +715,9 @@
     <t>61.346894</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Калинина, 30А</t>
+  </si>
+  <si>
     <t>область Свердловская, городской округ Режевской, город Реж, улица Ленина, д 26</t>
   </si>
   <si>
@@ -613,6 +736,9 @@
     <t>61.389959</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Ленина, 8</t>
+  </si>
+  <si>
     <t>область Свердловская, городской округ Режевской, город Реж, улица Машиностроителей, д 1</t>
   </si>
   <si>
@@ -622,6 +748,9 @@
     <t>61.385818</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Машиностроителей, 1</t>
+  </si>
+  <si>
     <t>область Свердловская, городской округ Режевской, город Реж, переулок П.Морозова, д 18</t>
   </si>
   <si>
@@ -631,6 +760,9 @@
     <t>61.404153</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, переулок Павлика Морозова</t>
+  </si>
+  <si>
     <t>область Свердловская, городской округ Режевской, город Реж, улица Ленина, стр 23</t>
   </si>
   <si>
@@ -643,6 +775,9 @@
     <t>61.380302</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, Красноармейская улица, 48</t>
+  </si>
+  <si>
     <t>область Свердловская, городской округ Режевской, город Реж, улица Трудовая, стр 40</t>
   </si>
   <si>
@@ -652,6 +787,9 @@
     <t>61.374993</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, Трудовая улица, 40</t>
+  </si>
+  <si>
     <t>область Свердловская, городской округ Режевской, город Реж, улица Советская, д 131</t>
   </si>
   <si>
@@ -664,6 +802,9 @@
     <t>61.369684</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, Спортивная улица, 2</t>
+  </si>
+  <si>
     <t>область Свердловская, городской округ Режевской, город Реж, улица Ленина, д 70 к 2</t>
   </si>
   <si>
@@ -673,6 +814,9 @@
     <t>61.374544</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Ленина, 70/2</t>
+  </si>
+  <si>
     <t>область Свердловская, городской округ Режевской, город Реж, улица Космонавтов, д 9</t>
   </si>
   <si>
@@ -682,6 +826,9 @@
     <t>61.390094</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Космонавтов, 9</t>
+  </si>
+  <si>
     <t>область Свердловская, городской округ Режевской, город Реж, переулок А.Матросова, д 89</t>
   </si>
   <si>
@@ -691,6 +838,9 @@
     <t>61.421248</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, переулок Александра Матросова</t>
+  </si>
+  <si>
     <t>область Свердловская, городской округ Режевской, город Реж, улица Чапаева, д 19</t>
   </si>
   <si>
@@ -700,6 +850,9 @@
     <t>61.393597</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Чапаева, 19</t>
+  </si>
+  <si>
     <t>Свердловская обл, Режевской р-н, поселок Озерный, ул Октябрьская, д 1</t>
   </si>
   <si>
@@ -709,6 +862,9 @@
     <t>61.212677</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Режевской городской округ, посёлок Озёрный, Октябрьская улица, 8</t>
+  </si>
+  <si>
     <t>СВЕРДЛОВСКАЯ ОБЛ,Р-Н РЕЖЕВСКОЙ,Г РЕЖ,УЛ МЕТАЛЛУРГОВ,СТР.1</t>
   </si>
   <si>
@@ -724,6 +880,9 @@
     <t>61.395035</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Металлургов, 1</t>
+  </si>
+  <si>
     <t>СВЕРДЛОВСКАЯ ОБЛ,Р-Н РЕЖЕВСКОЙ,Г РЕЖ,ПЕР ЧЕРНЯХОВСКОГО,Д.2</t>
   </si>
   <si>
@@ -733,6 +892,9 @@
     <t>61.34507</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, переулок Черняховского, 2</t>
+  </si>
+  <si>
     <t>СВЕРДЛОВСКАЯ ОБЛ,Р-Н РЕЖЕВСКОЙ,Г РЕЖ,УЛ КРАСНОФЛОТЦЕВ,Д.7</t>
   </si>
   <si>
@@ -742,6 +904,9 @@
     <t>61.427841</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Краснофлотцев, 7</t>
+  </si>
+  <si>
     <t>СВЕРДЛОВСКАЯ ОБЛ,Р-Н РЕЖЕВСКОЙ,П ОЗЁРНЫЙ,УЛ КЛУБНАЯ,СТР.1</t>
   </si>
   <si>
@@ -751,6 +916,9 @@
     <t>61.21415</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Режевской городской округ, посёлок Озёрный, Клубная улица, 1</t>
+  </si>
+  <si>
     <t>СВЕРДЛОВСКАЯ ОБЛ,Р-Н РЕЖЕВСКОЙ,С АРАМАШКА,УЛ ЛЕНИНА,Д.23</t>
   </si>
   <si>
@@ -760,6 +928,9 @@
     <t>61.501081</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Режевской городской округ, село Арамашка, улица Ленина, 25</t>
+  </si>
+  <si>
     <t>СВЕРДЛОВСКАЯ ОБЛ,Р-Н РЕЖЕВСКОЙ,С ГЛИНСКОЕ,УЛ КОСМОНАВТОВ,Д.2</t>
   </si>
   <si>
@@ -769,6 +940,9 @@
     <t>61.41372</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Режевской городской округ, село Глинское, улица Космонавтов, 2</t>
+  </si>
+  <si>
     <t>СВЕРДЛОВСКАЯ ОБЛ,Р-Н РЕЖЕВСКОЙ,С КЛЕВАКИНСКОЕ,УЛ 1 МАЯ,СТР.46</t>
   </si>
   <si>
@@ -778,19 +952,31 @@
     <t>61.35797</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Режевской городской округ, поселок Клевакинское, улица 1 Мая, 44</t>
+  </si>
+  <si>
     <t>СВЕРДЛОВСКАЯ ОБЛ,Р-Н РЕЖЕВСКОЙ,С ЛЕНЁВСКОЕ,УЛ СОВЕТСКАЯ,СТР.4</t>
   </si>
   <si>
     <t>57.585259</t>
   </si>
   <si>
+    <t>61.381003</t>
+  </si>
+  <si>
+    <t>Россия, Свердловская область, Режевской городской округ, село Леневское, Советская улица, 4</t>
+  </si>
+  <si>
     <t>СВЕРДЛОВСКАЯ ОБЛ,Р-Н РЕЖЕВСКОЙ,С ЛИПОВСКОЕ,УЛ СОВХОЗНАЯ,СТР.37</t>
   </si>
   <si>
-    <t>57.450473</t>
-  </si>
-  <si>
-    <t>61.175522</t>
+    <t>57.449979</t>
+  </si>
+  <si>
+    <t>61.169962</t>
+  </si>
+  <si>
+    <t>Россия, Свердловская область, Режевской городской округ, село Липовское, Совхозная улица, 31А</t>
   </si>
   <si>
     <t>СВЕРДЛОВСКАЯ ОБЛ,Р-Н РЕЖЕВСКОЙ,С ОСТАНИНО,УЛ МИРА,СТР.88</t>
@@ -802,6 +988,9 @@
     <t>61.317429</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Режевской городской округ, посёлок Останино, улица Мира, 80</t>
+  </si>
+  <si>
     <t>СВЕРДЛОВСКАЯ ОБЛ,Р-Н РЕЖЕВСКОЙ,С ЧЕРЕМИССКОЕ,УЛ К.МАРКСА,Д.6А</t>
   </si>
   <si>
@@ -811,6 +1000,9 @@
     <t>60.894152</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Режевской городской округ, село Черемисское, улица Карла Маркса, 6А</t>
+  </si>
+  <si>
     <t>Свердловская область, Режевской Район, Реж Город, ул Ленина, Дом 5</t>
   </si>
   <si>
@@ -829,6 +1021,9 @@
     <t>61.398628</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Павлика Морозова, 18</t>
+  </si>
+  <si>
     <t>Свердловская область, Режевской Район, Реж Город, ул Строителей, Дом 1</t>
   </si>
   <si>
@@ -844,6 +1039,9 @@
     <t>61.396238</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, Почтовая улица, 2</t>
+  </si>
+  <si>
     <t>Свердловская область, Режевской Район, Озёрный Поселок, ул Клубная, Дом 2</t>
   </si>
   <si>
@@ -853,6 +1051,9 @@
     <t>61.217096</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Режевской городской округ, посёлок Озёрный, Клубная улица, 2</t>
+  </si>
+  <si>
     <t>Свердловская обл, Режевской р-н, г Реж, ул Ленина, д 32</t>
   </si>
   <si>
@@ -868,6 +1069,9 @@
     <t>57.371312</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Ленина, 32</t>
+  </si>
+  <si>
     <t>Свердловская обл, Режевской р-н, г Реж, ул Ленина, д 26</t>
   </si>
   <si>
@@ -883,6 +1087,9 @@
     <t>61.23889</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Режевской городской округ</t>
+  </si>
+  <si>
     <t>Non-bank settlement credit institution Money.Mail.Ru (LLC); Money.Mail.Ru</t>
   </si>
   <si>
@@ -904,6 +1111,9 @@
     <t>61.385306</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Машиностроителей, 3</t>
+  </si>
+  <si>
     <t>Свердловская область, городской округ Режевской, город Реж, улица Ленина, строение 19</t>
   </si>
   <si>
@@ -916,6 +1126,9 @@
     <t>61.386941</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Ленина, 19</t>
+  </si>
+  <si>
     <t>Свердловская область, городской округ Режевской, город Реж, улица Ленина, строение 5</t>
   </si>
   <si>
@@ -985,9 +1198,6 @@
     <t>СВЕРДЛОВСКАЯ ОБЛ., РЕЖЕВСКОЙ Р-Н, С. ЛЕНЁВСКОЕ, УЛ. СОВЕТСКАЯ, СТР. 4</t>
   </si>
   <si>
-    <t>61.381003</t>
-  </si>
-  <si>
     <t>СВЕРДЛОВСКАЯ ОБЛ., РЕЖЕВСКОЙ Р-Н, С. ЛИПОВСКОЕ, УЛ. СОВХОЗНАЯ, СТР. 37</t>
   </si>
   <si>
@@ -1030,6 +1240,9 @@
     <t>61.384012</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Ленина, 28</t>
+  </si>
+  <si>
     <t>Свердловская обл, р-н Режевской, г Реж, ул Ленина, д. 5</t>
   </si>
   <si>
@@ -1066,6 +1279,9 @@
     <t>61.393921</t>
   </si>
   <si>
+    <t>Россия, Свердловская область, Реж, улица Металлургов, 3</t>
+  </si>
+  <si>
     <t>623750, Свердловская область, г.Реж, ул.Ленина, д.14</t>
   </si>
   <si>
@@ -1076,6 +1292,9 @@
   </si>
   <si>
     <t>61.388576</t>
+  </si>
+  <si>
+    <t>Россия, Свердловская область, Реж, улица Ленина, 14</t>
   </si>
 </sst>
 </file>
@@ -1260,11 +1479,11 @@
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2376,14 +2595,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H146"/>
+  <dimension ref="A1:I143"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="8" width="8.85156" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1562" style="1" customWidth="1"/>
+    <col min="3" max="8" width="8.85156" style="1" customWidth="1"/>
+    <col min="9" max="9" width="45.5234" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -2409,29 +2631,35 @@
       <c r="H1" t="s" s="3">
         <v>6</v>
       </c>
+      <c r="I1" t="s" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" t="s" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" t="s" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s" s="6">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I2" t="s" s="6">
+        <v>14</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
@@ -2439,23 +2667,26 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s" s="9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" t="s" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s" s="9">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="I3" t="s" s="9">
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
@@ -2463,23 +2694,26 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="8">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" t="s" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s" s="9">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="I4" t="s" s="9">
+        <v>19</v>
       </c>
     </row>
     <row r="5" ht="13.55" customHeight="1">
@@ -2487,23 +2721,26 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="8">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" t="s" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s" s="9">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="I5" t="s" s="9">
+        <v>26</v>
       </c>
     </row>
     <row r="6" ht="13.55" customHeight="1">
@@ -2511,23 +2748,26 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s" s="9">
         <v>23</v>
       </c>
-      <c r="C6" t="s" s="9">
-        <v>20</v>
-      </c>
       <c r="D6" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" t="s" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s" s="9">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="I6" t="s" s="9">
+        <v>30</v>
       </c>
     </row>
     <row r="7" ht="13.55" customHeight="1">
@@ -2535,23 +2775,26 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s" s="9">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11">
+        <v>57.372355</v>
+      </c>
+      <c r="H7" s="11">
+        <v>61.370142</v>
+      </c>
+      <c r="I7" t="s" s="9">
         <v>26</v>
-      </c>
-      <c r="C7" t="s" s="9">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s" s="9">
-        <v>28</v>
       </c>
     </row>
     <row r="8" ht="13.55" customHeight="1">
@@ -2559,23 +2802,26 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="8">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" t="s" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s" s="9">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="I8" t="s" s="9">
+        <v>36</v>
       </c>
     </row>
     <row r="9" ht="13.55" customHeight="1">
@@ -2583,23 +2829,26 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="8">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" t="s" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s" s="9">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="I9" t="s" s="9">
+        <v>40</v>
       </c>
     </row>
     <row r="10" ht="13.55" customHeight="1">
@@ -2607,95 +2856,107 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="8">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" t="s" s="9">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s" s="9">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="I10" t="s" s="9">
+        <v>44</v>
       </c>
     </row>
     <row r="11" ht="26.55" customHeight="1">
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="11">
-        <v>39</v>
+      <c r="B11" t="s" s="12">
+        <v>45</v>
       </c>
       <c r="C11" t="s" s="9">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s" s="9">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s" s="9">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" t="s" s="9">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s" s="9">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="I11" t="s" s="9">
+        <v>51</v>
       </c>
     </row>
     <row r="12" ht="26.55" customHeight="1">
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" t="s" s="11">
-        <v>45</v>
+      <c r="B12" t="s" s="12">
+        <v>52</v>
       </c>
       <c r="C12" t="s" s="9">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s" s="9">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s" s="9">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" t="s" s="9">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s" s="9">
-        <v>47</v>
+        <v>54</v>
+      </c>
+      <c r="I12" t="s" s="9">
+        <v>55</v>
       </c>
     </row>
     <row r="13" ht="26.55" customHeight="1">
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" t="s" s="11">
+      <c r="B13" t="s" s="12">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s" s="9">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s" s="9">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s" s="9">
         <v>48</v>
-      </c>
-      <c r="C13" t="s" s="9">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="E13" t="s" s="9">
-        <v>42</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" t="s" s="9">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H13" t="s" s="9">
-        <v>51</v>
+        <v>59</v>
+      </c>
+      <c r="I13" t="s" s="9">
+        <v>60</v>
       </c>
     </row>
     <row r="14" ht="13.55" customHeight="1">
@@ -2703,23 +2964,26 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="8">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s" s="9">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" t="s" s="9">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H14" t="s" s="9">
-        <v>51</v>
+        <v>59</v>
+      </c>
+      <c r="I14" t="s" s="9">
+        <v>60</v>
       </c>
     </row>
     <row r="15" ht="13.55" customHeight="1">
@@ -2727,25 +2991,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="8">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s" s="9">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s" s="9">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G15" t="s" s="9">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H15" t="s" s="9">
-        <v>59</v>
+        <v>68</v>
+      </c>
+      <c r="I15" t="s" s="9">
+        <v>69</v>
       </c>
     </row>
     <row r="16" ht="13.55" customHeight="1">
@@ -2753,25 +3020,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="8">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s" s="9">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s" s="9">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s" s="9">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s" s="9">
-        <v>12</v>
+        <v>74</v>
+      </c>
+      <c r="I16" t="s" s="9">
+        <v>75</v>
       </c>
     </row>
     <row r="17" ht="13.55" customHeight="1">
@@ -2779,25 +3049,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="8">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s" s="9">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s" s="9">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s" s="9">
         <v>63</v>
       </c>
-      <c r="C17" t="s" s="9">
-        <v>61</v>
-      </c>
-      <c r="D17" t="s" s="9">
-        <v>53</v>
-      </c>
-      <c r="E17" t="s" s="9">
-        <v>54</v>
-      </c>
       <c r="F17" t="s" s="9">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="9">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="9">
-        <v>66</v>
+        <v>79</v>
+      </c>
+      <c r="I17" t="s" s="9">
+        <v>80</v>
       </c>
     </row>
     <row r="18" ht="13.55" customHeight="1">
@@ -2805,25 +3078,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="8">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s" s="9">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s" s="9">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="H18" t="s" s="9">
-        <v>25</v>
+        <v>84</v>
+      </c>
+      <c r="I18" t="s" s="9">
+        <v>85</v>
       </c>
     </row>
     <row r="19" ht="13.55" customHeight="1">
@@ -2831,25 +3107,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="8">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F19" t="s" s="9">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s" s="9">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="9">
-        <v>72</v>
+        <v>89</v>
+      </c>
+      <c r="I19" t="s" s="9">
+        <v>90</v>
       </c>
     </row>
     <row r="20" ht="13.55" customHeight="1">
@@ -2857,25 +3136,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="8">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F20" t="s" s="9">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="G20" t="s" s="9">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="H20" t="s" s="9">
-        <v>76</v>
+        <v>94</v>
+      </c>
+      <c r="I20" t="s" s="9">
+        <v>95</v>
       </c>
     </row>
     <row r="21" ht="13.55" customHeight="1">
@@ -2883,25 +3165,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="8">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F21" t="s" s="9">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="G21" t="s" s="9">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H21" t="s" s="9">
-        <v>80</v>
+        <v>99</v>
+      </c>
+      <c r="I21" t="s" s="9">
+        <v>100</v>
       </c>
     </row>
     <row r="22" ht="13.55" customHeight="1">
@@ -2909,25 +3194,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="8">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F22" t="s" s="9">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="G22" t="s" s="9">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="H22" t="s" s="9">
-        <v>84</v>
+        <v>104</v>
+      </c>
+      <c r="I22" t="s" s="9">
+        <v>105</v>
       </c>
     </row>
     <row r="23" ht="13.55" customHeight="1">
@@ -2935,25 +3223,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="8">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s" s="9">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="G23" t="s" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H23" t="s" s="9">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="I23" t="s" s="9">
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="13.55" customHeight="1">
@@ -2961,25 +3252,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="8">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F24" t="s" s="9">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s" s="9">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s" s="9">
-        <v>25</v>
+        <v>84</v>
+      </c>
+      <c r="I24" t="s" s="9">
+        <v>85</v>
       </c>
     </row>
     <row r="25" ht="13.55" customHeight="1">
@@ -2987,25 +3281,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="8">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F25" t="s" s="9">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="G25" t="s" s="9">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="H25" t="s" s="9">
-        <v>90</v>
+        <v>111</v>
+      </c>
+      <c r="I25" t="s" s="9">
+        <v>112</v>
       </c>
     </row>
     <row r="26" ht="13.55" customHeight="1">
@@ -3013,25 +3310,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="8">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="C26" t="s" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F26" t="s" s="9">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="G26" t="s" s="9">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="H26" t="s" s="9">
-        <v>93</v>
+        <v>115</v>
+      </c>
+      <c r="I26" t="s" s="9">
+        <v>116</v>
       </c>
     </row>
     <row r="27" ht="13.55" customHeight="1">
@@ -3039,25 +3339,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="8">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F27" t="s" s="9">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="G27" t="s" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H27" t="s" s="9">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="I27" t="s" s="9">
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="13.55" customHeight="1">
@@ -3065,25 +3368,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="8">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F28" t="s" s="9">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="G28" t="s" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H28" t="s" s="9">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="I28" t="s" s="9">
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="13.55" customHeight="1">
@@ -3091,25 +3397,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="8">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E29" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F29" t="s" s="9">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="G29" t="s" s="9">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="H29" t="s" s="9">
-        <v>99</v>
+        <v>122</v>
+      </c>
+      <c r="I29" t="s" s="9">
+        <v>123</v>
       </c>
     </row>
     <row r="30" ht="13.55" customHeight="1">
@@ -3117,25 +3426,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="8">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C30" t="s" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E30" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F30" t="s" s="9">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="G30" t="s" s="9">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H30" t="s" s="9">
-        <v>12</v>
+        <v>74</v>
+      </c>
+      <c r="I30" t="s" s="9">
+        <v>75</v>
       </c>
     </row>
     <row r="31" ht="13.55" customHeight="1">
@@ -3143,25 +3455,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="8">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="C31" t="s" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E31" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F31" t="s" s="9">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="G31" t="s" s="9">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="H31" t="s" s="9">
-        <v>105</v>
+        <v>129</v>
+      </c>
+      <c r="I31" t="s" s="9">
+        <v>130</v>
       </c>
     </row>
     <row r="32" ht="13.55" customHeight="1">
@@ -3169,25 +3484,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="8">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E32" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F32" t="s" s="9">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="G32" t="s" s="9">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="H32" t="s" s="9">
-        <v>108</v>
+        <v>133</v>
+      </c>
+      <c r="I32" t="s" s="9">
+        <v>134</v>
       </c>
     </row>
     <row r="33" ht="13.55" customHeight="1">
@@ -3195,25 +3513,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="8">
+        <v>135</v>
+      </c>
+      <c r="C33" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s" s="9">
+        <v>62</v>
+      </c>
+      <c r="E33" t="s" s="9">
+        <v>63</v>
+      </c>
+      <c r="F33" t="s" s="9">
         <v>109</v>
       </c>
-      <c r="C33" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="D33" t="s" s="9">
-        <v>53</v>
-      </c>
-      <c r="E33" t="s" s="9">
-        <v>54</v>
-      </c>
-      <c r="F33" t="s" s="9">
-        <v>88</v>
-      </c>
       <c r="G33" t="s" s="9">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="H33" t="s" s="9">
-        <v>111</v>
+        <v>137</v>
+      </c>
+      <c r="I33" t="s" s="9">
+        <v>138</v>
       </c>
     </row>
     <row r="34" ht="13.55" customHeight="1">
@@ -3221,23 +3542,26 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="8">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="C34" t="s" s="9">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="D34" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E34" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" t="s" s="9">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="H34" t="s" s="9">
-        <v>115</v>
+        <v>142</v>
+      </c>
+      <c r="I34" t="s" s="9">
+        <v>143</v>
       </c>
     </row>
     <row r="35" ht="13.55" customHeight="1">
@@ -3245,25 +3569,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="8">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="C35" t="s" s="9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E35" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F35" t="s" s="9">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="G35" t="s" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H35" t="s" s="9">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="I35" t="s" s="9">
+        <v>19</v>
       </c>
     </row>
     <row r="36" ht="13.55" customHeight="1">
@@ -3271,25 +3598,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="8">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="C36" t="s" s="9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E36" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F36" t="s" s="9">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="G36" t="s" s="9">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="H36" t="s" s="9">
-        <v>84</v>
+        <v>104</v>
+      </c>
+      <c r="I36" t="s" s="9">
+        <v>105</v>
       </c>
     </row>
     <row r="37" ht="13.55" customHeight="1">
@@ -3297,25 +3627,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="8">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="C37" t="s" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D37" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E37" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F37" t="s" s="9">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="G37" t="s" s="9">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="H37" t="s" s="9">
-        <v>123</v>
+        <v>151</v>
+      </c>
+      <c r="I37" t="s" s="9">
+        <v>152</v>
       </c>
     </row>
     <row r="38" ht="13.55" customHeight="1">
@@ -3323,25 +3656,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="8">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="C38" t="s" s="9">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="D38" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E38" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F38" t="s" s="9">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="G38" t="s" s="9">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="H38" t="s" s="9">
-        <v>128</v>
+        <v>157</v>
+      </c>
+      <c r="I38" t="s" s="9">
+        <v>158</v>
       </c>
     </row>
     <row r="39" ht="13.55" customHeight="1">
@@ -3349,25 +3685,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="8">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="C39" t="s" s="9">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="D39" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F39" t="s" s="9">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="G39" t="s" s="9">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="H39" t="s" s="9">
-        <v>84</v>
+        <v>104</v>
+      </c>
+      <c r="I39" t="s" s="9">
+        <v>105</v>
       </c>
     </row>
     <row r="40" ht="13.55" customHeight="1">
@@ -3375,25 +3714,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="8">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="C40" t="s" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F40" t="s" s="9">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="G40" t="s" s="9">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="H40" t="s" s="9">
-        <v>76</v>
+        <v>94</v>
+      </c>
+      <c r="I40" t="s" s="9">
+        <v>95</v>
       </c>
     </row>
     <row r="41" ht="13.55" customHeight="1">
@@ -3401,25 +3743,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="8">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="C41" t="s" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E41" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F41" t="s" s="9">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="G41" t="s" s="9">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="H41" t="s" s="9">
-        <v>93</v>
+        <v>115</v>
+      </c>
+      <c r="I41" t="s" s="9">
+        <v>116</v>
       </c>
     </row>
     <row r="42" ht="13.55" customHeight="1">
@@ -3427,25 +3772,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="8">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="C42" t="s" s="9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F42" t="s" s="9">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="G42" t="s" s="9">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H42" t="s" s="9">
-        <v>12</v>
+        <v>74</v>
+      </c>
+      <c r="I42" t="s" s="9">
+        <v>75</v>
       </c>
     </row>
     <row r="43" ht="13.55" customHeight="1">
@@ -3453,25 +3801,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="8">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="C43" t="s" s="9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E43" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F43" t="s" s="9">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="G43" t="s" s="9">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="H43" t="s" s="9">
-        <v>99</v>
+        <v>122</v>
+      </c>
+      <c r="I43" t="s" s="9">
+        <v>123</v>
       </c>
     </row>
     <row r="44" ht="13.55" customHeight="1">
@@ -3479,25 +3830,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="8">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="C44" t="s" s="9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E44" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F44" t="s" s="9">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="G44" t="s" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H44" t="s" s="9">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="I44" t="s" s="9">
+        <v>19</v>
       </c>
     </row>
     <row r="45" ht="13.55" customHeight="1">
@@ -3505,25 +3859,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="8">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="C45" t="s" s="9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E45" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F45" t="s" s="9">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="G45" t="s" s="9">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="H45" t="s" s="9">
-        <v>108</v>
+        <v>133</v>
+      </c>
+      <c r="I45" t="s" s="9">
+        <v>134</v>
       </c>
     </row>
     <row r="46" ht="13.55" customHeight="1">
@@ -3531,25 +3888,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="8">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="C46" t="s" s="9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E46" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F46" t="s" s="9">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="G46" t="s" s="9">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="H46" t="s" s="9">
-        <v>84</v>
+        <v>104</v>
+      </c>
+      <c r="I46" t="s" s="9">
+        <v>105</v>
       </c>
     </row>
     <row r="47" ht="13.55" customHeight="1">
@@ -3557,25 +3917,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="8">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="C47" t="s" s="9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E47" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F47" t="s" s="9">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="G47" t="s" s="9">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="H47" t="s" s="9">
-        <v>147</v>
+        <v>177</v>
+      </c>
+      <c r="I47" t="s" s="9">
+        <v>178</v>
       </c>
     </row>
     <row r="48" ht="13.55" customHeight="1">
@@ -3583,25 +3946,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="8">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="C48" t="s" s="9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E48" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F48" t="s" s="9">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="G48" t="s" s="9">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="H48" t="s" s="9">
-        <v>151</v>
+        <v>182</v>
+      </c>
+      <c r="I48" t="s" s="9">
+        <v>183</v>
       </c>
     </row>
     <row r="49" ht="13.55" customHeight="1">
@@ -3609,25 +3975,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="8">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="C49" t="s" s="9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E49" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F49" t="s" s="9">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="G49" t="s" s="9">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="H49" t="s" s="9">
-        <v>155</v>
+        <v>187</v>
+      </c>
+      <c r="I49" t="s" s="9">
+        <v>188</v>
       </c>
     </row>
     <row r="50" ht="13.55" customHeight="1">
@@ -3635,25 +4004,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="8">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D50" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E50" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F50" t="s" s="9">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="G50" t="s" s="9">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="H50" t="s" s="9">
-        <v>25</v>
+        <v>84</v>
+      </c>
+      <c r="I50" t="s" s="9">
+        <v>85</v>
       </c>
     </row>
     <row r="51" ht="13.55" customHeight="1">
@@ -3661,25 +4033,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="8">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D51" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E51" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F51" t="s" s="9">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="G51" t="s" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H51" t="s" s="9">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="I51" t="s" s="9">
+        <v>36</v>
       </c>
     </row>
     <row r="52" ht="13.55" customHeight="1">
@@ -3687,25 +4062,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="8">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="C52" t="s" s="9">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="D52" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E52" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F52" t="s" s="9">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="G52" t="s" s="9">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="H52" t="s" s="9">
-        <v>161</v>
+        <v>194</v>
+      </c>
+      <c r="I52" t="s" s="9">
+        <v>195</v>
       </c>
     </row>
     <row r="53" ht="13.55" customHeight="1">
@@ -3713,25 +4091,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="8">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="C53" t="s" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D53" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E53" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F53" t="s" s="9">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="G53" t="s" s="9">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="H53" t="s" s="9">
-        <v>165</v>
+        <v>199</v>
+      </c>
+      <c r="I53" t="s" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="54" ht="13.55" customHeight="1">
@@ -3739,25 +4120,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="8">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="C54" t="s" s="9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D54" t="s" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E54" t="s" s="9">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F54" t="s" s="9">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="G54" t="s" s="9">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="H54" t="s" s="9">
-        <v>168</v>
+        <v>203</v>
+      </c>
+      <c r="I54" t="s" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="55" ht="13.55" customHeight="1">
@@ -3765,23 +4149,26 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="8">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="C55" t="s" s="9">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="D55" t="s" s="9">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="E55" t="s" s="9">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" t="s" s="9">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="H55" t="s" s="9">
-        <v>174</v>
+        <v>209</v>
+      </c>
+      <c r="I55" t="s" s="9">
+        <v>210</v>
       </c>
     </row>
     <row r="56" ht="13.55" customHeight="1">
@@ -3789,23 +4176,26 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="8">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="C56" t="s" s="9">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="D56" t="s" s="9">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="E56" t="s" s="9">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" t="s" s="9">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="H56" t="s" s="9">
-        <v>178</v>
+        <v>214</v>
+      </c>
+      <c r="I56" t="s" s="9">
+        <v>215</v>
       </c>
     </row>
     <row r="57" ht="13.55" customHeight="1">
@@ -3813,25 +4203,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="8">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="C57" t="s" s="9">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="D57" t="s" s="9">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="E57" t="s" s="9">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="F57" t="s" s="9">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="G57" t="s" s="9">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="H57" t="s" s="9">
-        <v>183</v>
+        <v>220</v>
+      </c>
+      <c r="I57" t="s" s="9">
+        <v>221</v>
       </c>
     </row>
     <row r="58" ht="13.55" customHeight="1">
@@ -3839,25 +4232,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="8">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="C58" t="s" s="9">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="D58" t="s" s="9">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="E58" t="s" s="9">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="F58" t="s" s="9">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="G58" t="s" s="9">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="H58" t="s" s="9">
-        <v>186</v>
+        <v>224</v>
+      </c>
+      <c r="I58" t="s" s="9">
+        <v>225</v>
       </c>
     </row>
     <row r="59" ht="13.55" customHeight="1">
@@ -3865,25 +4261,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="8">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="C59" t="s" s="9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D59" t="s" s="9">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="E59" t="s" s="9">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="F59" t="s" s="9">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="G59" t="s" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H59" t="s" s="9">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="I59" t="s" s="9">
+        <v>19</v>
       </c>
     </row>
     <row r="60" ht="13.55" customHeight="1">
@@ -3891,23 +4290,26 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="8">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="C60" t="s" s="9">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="D60" t="s" s="9">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="E60" t="s" s="9">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" t="s" s="9">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="H60" t="s" s="9">
-        <v>189</v>
+        <v>228</v>
+      </c>
+      <c r="I60" t="s" s="9">
+        <v>229</v>
       </c>
     </row>
     <row r="61" ht="13.55" customHeight="1">
@@ -3915,23 +4317,26 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="8">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="C61" t="s" s="9">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="D61" t="s" s="9">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="E61" t="s" s="9">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="F61" s="10"/>
       <c r="G61" t="s" s="9">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="H61" t="s" s="9">
-        <v>192</v>
+        <v>232</v>
+      </c>
+      <c r="I61" t="s" s="9">
+        <v>233</v>
       </c>
     </row>
     <row r="62" ht="13.55" customHeight="1">
@@ -3939,23 +4344,26 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="8">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="C62" t="s" s="9">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="D62" t="s" s="9">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="E62" t="s" s="9">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="F62" s="10"/>
       <c r="G62" t="s" s="9">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="H62" t="s" s="9">
-        <v>178</v>
+        <v>214</v>
+      </c>
+      <c r="I62" t="s" s="9">
+        <v>215</v>
       </c>
     </row>
     <row r="63" ht="13.55" customHeight="1">
@@ -3963,23 +4371,26 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="8">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="C63" t="s" s="9">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="D63" t="s" s="9">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="E63" t="s" s="9">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="F63" s="10"/>
       <c r="G63" t="s" s="9">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="H63" t="s" s="9">
-        <v>178</v>
+        <v>214</v>
+      </c>
+      <c r="I63" t="s" s="9">
+        <v>215</v>
       </c>
     </row>
     <row r="64" ht="13.55" customHeight="1">
@@ -3987,23 +4398,26 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="8">
-        <v>194</v>
+        <v>235</v>
       </c>
       <c r="C64" t="s" s="9">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="D64" t="s" s="9">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="E64" t="s" s="9">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" t="s" s="9">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="H64" t="s" s="9">
-        <v>105</v>
+        <v>129</v>
+      </c>
+      <c r="I64" t="s" s="9">
+        <v>130</v>
       </c>
     </row>
     <row r="65" ht="13.55" customHeight="1">
@@ -4011,23 +4425,26 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="8">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="C65" t="s" s="9">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="D65" t="s" s="9">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="E65" t="s" s="9">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" t="s" s="9">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s" s="9">
-        <v>72</v>
+        <v>89</v>
+      </c>
+      <c r="I65" t="s" s="9">
+        <v>90</v>
       </c>
     </row>
     <row r="66" ht="13.55" customHeight="1">
@@ -4035,23 +4452,26 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="8">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="C66" t="s" s="9">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="D66" t="s" s="9">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="E66" t="s" s="9">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" t="s" s="9">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="H66" t="s" s="9">
-        <v>198</v>
+        <v>239</v>
+      </c>
+      <c r="I66" t="s" s="9">
+        <v>240</v>
       </c>
     </row>
     <row r="67" ht="13.55" customHeight="1">
@@ -4059,23 +4479,26 @@
         <v>65</v>
       </c>
       <c r="B67" t="s" s="8">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="C67" t="s" s="9">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="D67" t="s" s="9">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="E67" t="s" s="9">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" t="s" s="9">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="H67" t="s" s="9">
-        <v>201</v>
+        <v>243</v>
+      </c>
+      <c r="I67" t="s" s="9">
+        <v>244</v>
       </c>
     </row>
     <row r="68" ht="13.55" customHeight="1">
@@ -4083,23 +4506,26 @@
         <v>66</v>
       </c>
       <c r="B68" t="s" s="8">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="C68" t="s" s="9">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="D68" t="s" s="9">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="E68" t="s" s="9">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" t="s" s="9">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="H68" t="s" s="9">
-        <v>204</v>
+        <v>247</v>
+      </c>
+      <c r="I68" t="s" s="9">
+        <v>248</v>
       </c>
     </row>
     <row r="69" ht="13.55" customHeight="1">
@@ -4107,23 +4533,26 @@
         <v>67</v>
       </c>
       <c r="B69" t="s" s="8">
+        <v>249</v>
+      </c>
+      <c r="C69" t="s" s="9">
         <v>205</v>
       </c>
-      <c r="C69" t="s" s="9">
-        <v>170</v>
-      </c>
       <c r="D69" t="s" s="9">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="E69" t="s" s="9">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" t="s" s="9">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="H69" t="s" s="9">
-        <v>76</v>
+        <v>94</v>
+      </c>
+      <c r="I69" t="s" s="9">
+        <v>95</v>
       </c>
     </row>
     <row r="70" ht="13.55" customHeight="1">
@@ -4131,23 +4560,26 @@
         <v>68</v>
       </c>
       <c r="B70" t="s" s="8">
+        <v>250</v>
+      </c>
+      <c r="C70" t="s" s="9">
+        <v>205</v>
+      </c>
+      <c r="D70" t="s" s="9">
         <v>206</v>
       </c>
-      <c r="C70" t="s" s="9">
-        <v>170</v>
-      </c>
-      <c r="D70" t="s" s="9">
-        <v>171</v>
-      </c>
       <c r="E70" t="s" s="9">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" t="s" s="9">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="H70" t="s" s="9">
-        <v>208</v>
+        <v>252</v>
+      </c>
+      <c r="I70" t="s" s="9">
+        <v>253</v>
       </c>
     </row>
     <row r="71" ht="13.55" customHeight="1">
@@ -4155,23 +4587,26 @@
         <v>69</v>
       </c>
       <c r="B71" t="s" s="8">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="C71" t="s" s="9">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="D71" t="s" s="9">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="E71" t="s" s="9">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="F71" s="10"/>
       <c r="G71" t="s" s="9">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="H71" t="s" s="9">
-        <v>211</v>
+        <v>256</v>
+      </c>
+      <c r="I71" t="s" s="9">
+        <v>257</v>
       </c>
     </row>
     <row r="72" ht="13.55" customHeight="1">
@@ -4179,23 +4614,26 @@
         <v>70</v>
       </c>
       <c r="B72" t="s" s="8">
-        <v>212</v>
+        <v>258</v>
       </c>
       <c r="C72" t="s" s="9">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="D72" t="s" s="9">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="E72" t="s" s="9">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" t="s" s="9">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="H72" t="s" s="9">
-        <v>93</v>
+        <v>115</v>
+      </c>
+      <c r="I72" t="s" s="9">
+        <v>116</v>
       </c>
     </row>
     <row r="73" ht="13.55" customHeight="1">
@@ -4203,23 +4641,26 @@
         <v>71</v>
       </c>
       <c r="B73" t="s" s="8">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="C73" t="s" s="9">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="D73" t="s" s="9">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="E73" t="s" s="9">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="F73" s="10"/>
       <c r="G73" t="s" s="9">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="H73" t="s" s="9">
-        <v>215</v>
+        <v>261</v>
+      </c>
+      <c r="I73" t="s" s="9">
+        <v>262</v>
       </c>
     </row>
     <row r="74" ht="13.55" customHeight="1">
@@ -4227,23 +4668,26 @@
         <v>72</v>
       </c>
       <c r="B74" t="s" s="8">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="C74" t="s" s="9">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="D74" t="s" s="9">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="E74" t="s" s="9">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="F74" s="10"/>
       <c r="G74" t="s" s="9">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="H74" t="s" s="9">
-        <v>218</v>
+        <v>265</v>
+      </c>
+      <c r="I74" t="s" s="9">
+        <v>266</v>
       </c>
     </row>
     <row r="75" ht="13.55" customHeight="1">
@@ -4251,23 +4695,26 @@
         <v>73</v>
       </c>
       <c r="B75" t="s" s="8">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="C75" t="s" s="9">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="D75" t="s" s="9">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="E75" t="s" s="9">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="F75" s="10"/>
       <c r="G75" t="s" s="9">
-        <v>220</v>
+        <v>268</v>
       </c>
       <c r="H75" t="s" s="9">
-        <v>221</v>
+        <v>269</v>
+      </c>
+      <c r="I75" t="s" s="9">
+        <v>270</v>
       </c>
     </row>
     <row r="76" ht="13.55" customHeight="1">
@@ -4275,23 +4722,26 @@
         <v>74</v>
       </c>
       <c r="B76" t="s" s="8">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="C76" t="s" s="9">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="D76" t="s" s="9">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="E76" t="s" s="9">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" t="s" s="9">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="H76" t="s" s="9">
-        <v>224</v>
+        <v>273</v>
+      </c>
+      <c r="I76" t="s" s="9">
+        <v>274</v>
       </c>
     </row>
     <row r="77" ht="13.55" customHeight="1">
@@ -4299,23 +4749,26 @@
         <v>75</v>
       </c>
       <c r="B77" t="s" s="8">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="C77" t="s" s="9">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="D77" t="s" s="9">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="E77" t="s" s="9">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" t="s" s="9">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="H77" t="s" s="9">
-        <v>227</v>
+        <v>277</v>
+      </c>
+      <c r="I77" t="s" s="9">
+        <v>278</v>
       </c>
     </row>
     <row r="78" ht="13.55" customHeight="1">
@@ -4323,23 +4776,26 @@
         <v>76</v>
       </c>
       <c r="B78" t="s" s="8">
-        <v>228</v>
+        <v>279</v>
       </c>
       <c r="C78" t="s" s="9">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="D78" t="s" s="9">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="E78" t="s" s="9">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="F78" s="10"/>
       <c r="G78" t="s" s="9">
-        <v>229</v>
+        <v>280</v>
       </c>
       <c r="H78" t="s" s="9">
-        <v>230</v>
+        <v>281</v>
+      </c>
+      <c r="I78" t="s" s="9">
+        <v>282</v>
       </c>
     </row>
     <row r="79" ht="13.55" customHeight="1">
@@ -4347,23 +4803,26 @@
         <v>77</v>
       </c>
       <c r="B79" t="s" s="8">
-        <v>231</v>
+        <v>283</v>
       </c>
       <c r="C79" t="s" s="9">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="D79" t="s" s="9">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="E79" t="s" s="9">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="F79" s="10"/>
       <c r="G79" t="s" s="9">
-        <v>234</v>
+        <v>286</v>
       </c>
       <c r="H79" t="s" s="9">
-        <v>235</v>
+        <v>287</v>
+      </c>
+      <c r="I79" t="s" s="9">
+        <v>288</v>
       </c>
     </row>
     <row r="80" ht="13.55" customHeight="1">
@@ -4371,23 +4830,26 @@
         <v>78</v>
       </c>
       <c r="B80" t="s" s="8">
-        <v>236</v>
+        <v>289</v>
       </c>
       <c r="C80" t="s" s="9">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="D80" t="s" s="9">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="E80" t="s" s="9">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="F80" s="10"/>
       <c r="G80" t="s" s="9">
-        <v>237</v>
+        <v>290</v>
       </c>
       <c r="H80" t="s" s="9">
-        <v>238</v>
+        <v>291</v>
+      </c>
+      <c r="I80" t="s" s="9">
+        <v>292</v>
       </c>
     </row>
     <row r="81" ht="13.55" customHeight="1">
@@ -4395,23 +4857,26 @@
         <v>79</v>
       </c>
       <c r="B81" t="s" s="8">
-        <v>239</v>
+        <v>293</v>
       </c>
       <c r="C81" t="s" s="9">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="D81" t="s" s="9">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="E81" t="s" s="9">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="F81" s="10"/>
       <c r="G81" t="s" s="9">
-        <v>240</v>
+        <v>294</v>
       </c>
       <c r="H81" t="s" s="9">
-        <v>241</v>
+        <v>295</v>
+      </c>
+      <c r="I81" t="s" s="9">
+        <v>296</v>
       </c>
     </row>
     <row r="82" ht="13.55" customHeight="1">
@@ -4419,23 +4884,26 @@
         <v>80</v>
       </c>
       <c r="B82" t="s" s="8">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="C82" t="s" s="9">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="D82" t="s" s="9">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="E82" t="s" s="9">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" t="s" s="9">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="H82" t="s" s="9">
-        <v>115</v>
+        <v>142</v>
+      </c>
+      <c r="I82" t="s" s="9">
+        <v>143</v>
       </c>
     </row>
     <row r="83" ht="13.55" customHeight="1">
@@ -4443,23 +4911,26 @@
         <v>81</v>
       </c>
       <c r="B83" t="s" s="8">
-        <v>112</v>
+        <v>289</v>
       </c>
       <c r="C83" t="s" s="9">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="D83" t="s" s="9">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="E83" t="s" s="9">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="F83" s="10"/>
       <c r="G83" t="s" s="9">
-        <v>114</v>
+        <v>290</v>
       </c>
       <c r="H83" t="s" s="9">
-        <v>115</v>
+        <v>291</v>
+      </c>
+      <c r="I83" t="s" s="9">
+        <v>292</v>
       </c>
     </row>
     <row r="84" ht="13.55" customHeight="1">
@@ -4467,23 +4938,26 @@
         <v>82</v>
       </c>
       <c r="B84" t="s" s="8">
-        <v>112</v>
+        <v>283</v>
       </c>
       <c r="C84" t="s" s="9">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="D84" t="s" s="9">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="E84" t="s" s="9">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="F84" s="10"/>
       <c r="G84" t="s" s="9">
-        <v>114</v>
+        <v>286</v>
       </c>
       <c r="H84" t="s" s="9">
-        <v>115</v>
+        <v>287</v>
+      </c>
+      <c r="I84" t="s" s="9">
+        <v>288</v>
       </c>
     </row>
     <row r="85" ht="13.55" customHeight="1">
@@ -4491,23 +4965,26 @@
         <v>83</v>
       </c>
       <c r="B85" t="s" s="8">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="C85" t="s" s="9">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="D85" t="s" s="9">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="E85" t="s" s="9">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="F85" s="10"/>
       <c r="G85" t="s" s="9">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="H85" t="s" s="9">
-        <v>238</v>
+        <v>299</v>
+      </c>
+      <c r="I85" t="s" s="9">
+        <v>300</v>
       </c>
     </row>
     <row r="86" ht="13.55" customHeight="1">
@@ -4515,23 +4992,26 @@
         <v>84</v>
       </c>
       <c r="B86" t="s" s="8">
-        <v>231</v>
+        <v>301</v>
       </c>
       <c r="C86" t="s" s="9">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="D86" t="s" s="9">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="E86" t="s" s="9">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="F86" s="10"/>
       <c r="G86" t="s" s="9">
-        <v>234</v>
+        <v>302</v>
       </c>
       <c r="H86" t="s" s="9">
-        <v>235</v>
+        <v>303</v>
+      </c>
+      <c r="I86" t="s" s="9">
+        <v>304</v>
       </c>
     </row>
     <row r="87" ht="13.55" customHeight="1">
@@ -4539,23 +5019,26 @@
         <v>85</v>
       </c>
       <c r="B87" t="s" s="8">
-        <v>242</v>
+        <v>305</v>
       </c>
       <c r="C87" t="s" s="9">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="D87" t="s" s="9">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="E87" t="s" s="9">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" t="s" s="9">
-        <v>243</v>
+        <v>306</v>
       </c>
       <c r="H87" t="s" s="9">
-        <v>244</v>
+        <v>307</v>
+      </c>
+      <c r="I87" t="s" s="9">
+        <v>308</v>
       </c>
     </row>
     <row r="88" ht="13.55" customHeight="1">
@@ -4563,23 +5046,26 @@
         <v>86</v>
       </c>
       <c r="B88" t="s" s="8">
-        <v>245</v>
+        <v>309</v>
       </c>
       <c r="C88" t="s" s="9">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="D88" t="s" s="9">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="E88" t="s" s="9">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="F88" s="10"/>
       <c r="G88" t="s" s="9">
-        <v>246</v>
+        <v>310</v>
       </c>
       <c r="H88" t="s" s="9">
-        <v>247</v>
+        <v>311</v>
+      </c>
+      <c r="I88" t="s" s="9">
+        <v>312</v>
       </c>
     </row>
     <row r="89" ht="13.55" customHeight="1">
@@ -4587,23 +5073,26 @@
         <v>87</v>
       </c>
       <c r="B89" t="s" s="8">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="C89" t="s" s="9">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="D89" t="s" s="9">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="E89" t="s" s="9">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="F89" s="10"/>
       <c r="G89" t="s" s="9">
-        <v>249</v>
+        <v>314</v>
       </c>
       <c r="H89" t="s" s="9">
-        <v>250</v>
+        <v>315</v>
+      </c>
+      <c r="I89" t="s" s="9">
+        <v>316</v>
       </c>
     </row>
     <row r="90" ht="13.55" customHeight="1">
@@ -4611,23 +5100,26 @@
         <v>88</v>
       </c>
       <c r="B90" t="s" s="8">
-        <v>251</v>
+        <v>317</v>
       </c>
       <c r="C90" t="s" s="9">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="D90" t="s" s="9">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="E90" t="s" s="9">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="F90" s="10"/>
       <c r="G90" t="s" s="9">
-        <v>252</v>
+        <v>318</v>
       </c>
       <c r="H90" t="s" s="9">
-        <v>253</v>
+        <v>319</v>
+      </c>
+      <c r="I90" t="s" s="9">
+        <v>320</v>
       </c>
     </row>
     <row r="91" ht="13.55" customHeight="1">
@@ -4635,23 +5127,26 @@
         <v>89</v>
       </c>
       <c r="B91" t="s" s="8">
-        <v>254</v>
+        <v>321</v>
       </c>
       <c r="C91" t="s" s="9">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="D91" t="s" s="9">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="E91" t="s" s="9">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="F91" s="10"/>
       <c r="G91" t="s" s="9">
-        <v>255</v>
-      </c>
-      <c r="H91" s="12">
-        <v>61.380803</v>
+        <v>322</v>
+      </c>
+      <c r="H91" t="s" s="9">
+        <v>323</v>
+      </c>
+      <c r="I91" t="s" s="9">
+        <v>324</v>
       </c>
     </row>
     <row r="92" ht="13.55" customHeight="1">
@@ -4659,23 +5154,26 @@
         <v>90</v>
       </c>
       <c r="B92" t="s" s="8">
-        <v>256</v>
+        <v>325</v>
       </c>
       <c r="C92" t="s" s="9">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="D92" t="s" s="9">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="E92" t="s" s="9">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="F92" s="10"/>
       <c r="G92" t="s" s="9">
-        <v>257</v>
+        <v>326</v>
       </c>
       <c r="H92" t="s" s="9">
-        <v>258</v>
+        <v>327</v>
+      </c>
+      <c r="I92" t="s" s="9">
+        <v>328</v>
       </c>
     </row>
     <row r="93" ht="13.55" customHeight="1">
@@ -4683,23 +5181,26 @@
         <v>91</v>
       </c>
       <c r="B93" t="s" s="8">
-        <v>259</v>
+        <v>329</v>
       </c>
       <c r="C93" t="s" s="9">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="D93" t="s" s="9">
-        <v>232</v>
+        <v>330</v>
       </c>
       <c r="E93" t="s" s="9">
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="F93" s="10"/>
       <c r="G93" t="s" s="9">
-        <v>260</v>
+        <v>78</v>
       </c>
       <c r="H93" t="s" s="9">
-        <v>261</v>
+        <v>79</v>
+      </c>
+      <c r="I93" t="s" s="9">
+        <v>80</v>
       </c>
     </row>
     <row r="94" ht="13.55" customHeight="1">
@@ -4707,23 +5208,26 @@
         <v>92</v>
       </c>
       <c r="B94" t="s" s="8">
-        <v>262</v>
+        <v>329</v>
       </c>
       <c r="C94" t="s" s="9">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="D94" t="s" s="9">
-        <v>232</v>
+        <v>330</v>
       </c>
       <c r="E94" t="s" s="9">
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="F94" s="10"/>
       <c r="G94" t="s" s="9">
-        <v>263</v>
+        <v>78</v>
       </c>
       <c r="H94" t="s" s="9">
-        <v>264</v>
+        <v>79</v>
+      </c>
+      <c r="I94" t="s" s="9">
+        <v>80</v>
       </c>
     </row>
     <row r="95" ht="13.55" customHeight="1">
@@ -4731,23 +5235,26 @@
         <v>93</v>
       </c>
       <c r="B95" t="s" s="8">
-        <v>265</v>
+        <v>329</v>
       </c>
       <c r="C95" t="s" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D95" t="s" s="9">
-        <v>266</v>
+        <v>330</v>
       </c>
       <c r="E95" t="s" s="9">
-        <v>267</v>
+        <v>331</v>
       </c>
       <c r="F95" s="10"/>
       <c r="G95" t="s" s="9">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H95" t="s" s="9">
-        <v>66</v>
+        <v>79</v>
+      </c>
+      <c r="I95" t="s" s="9">
+        <v>80</v>
       </c>
     </row>
     <row r="96" ht="13.55" customHeight="1">
@@ -4755,23 +5262,26 @@
         <v>94</v>
       </c>
       <c r="B96" t="s" s="8">
-        <v>265</v>
+        <v>329</v>
       </c>
       <c r="C96" t="s" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D96" t="s" s="9">
-        <v>266</v>
+        <v>330</v>
       </c>
       <c r="E96" t="s" s="9">
-        <v>267</v>
+        <v>331</v>
       </c>
       <c r="F96" s="10"/>
       <c r="G96" t="s" s="9">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H96" t="s" s="9">
-        <v>66</v>
+        <v>79</v>
+      </c>
+      <c r="I96" t="s" s="9">
+        <v>80</v>
       </c>
     </row>
     <row r="97" ht="13.55" customHeight="1">
@@ -4779,23 +5289,26 @@
         <v>95</v>
       </c>
       <c r="B97" t="s" s="8">
-        <v>265</v>
+        <v>329</v>
       </c>
       <c r="C97" t="s" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D97" t="s" s="9">
-        <v>266</v>
+        <v>330</v>
       </c>
       <c r="E97" t="s" s="9">
-        <v>267</v>
+        <v>331</v>
       </c>
       <c r="F97" s="10"/>
       <c r="G97" t="s" s="9">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H97" t="s" s="9">
-        <v>66</v>
+        <v>79</v>
+      </c>
+      <c r="I97" t="s" s="9">
+        <v>80</v>
       </c>
     </row>
     <row r="98" ht="13.55" customHeight="1">
@@ -4803,23 +5316,26 @@
         <v>96</v>
       </c>
       <c r="B98" t="s" s="8">
-        <v>265</v>
+        <v>332</v>
       </c>
       <c r="C98" t="s" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D98" t="s" s="9">
-        <v>266</v>
+        <v>330</v>
       </c>
       <c r="E98" t="s" s="9">
-        <v>267</v>
+        <v>331</v>
       </c>
       <c r="F98" s="10"/>
       <c r="G98" t="s" s="9">
-        <v>65</v>
+        <v>333</v>
       </c>
       <c r="H98" t="s" s="9">
-        <v>66</v>
+        <v>334</v>
+      </c>
+      <c r="I98" t="s" s="9">
+        <v>335</v>
       </c>
     </row>
     <row r="99" ht="13.55" customHeight="1">
@@ -4827,23 +5343,26 @@
         <v>97</v>
       </c>
       <c r="B99" t="s" s="8">
-        <v>265</v>
+        <v>336</v>
       </c>
       <c r="C99" t="s" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D99" t="s" s="9">
-        <v>266</v>
+        <v>330</v>
       </c>
       <c r="E99" t="s" s="9">
-        <v>267</v>
+        <v>331</v>
       </c>
       <c r="F99" s="10"/>
       <c r="G99" t="s" s="9">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="H99" t="s" s="9">
-        <v>66</v>
+        <v>111</v>
+      </c>
+      <c r="I99" t="s" s="9">
+        <v>112</v>
       </c>
     </row>
     <row r="100" ht="13.55" customHeight="1">
@@ -4851,23 +5370,26 @@
         <v>98</v>
       </c>
       <c r="B100" t="s" s="8">
-        <v>268</v>
+        <v>336</v>
       </c>
       <c r="C100" t="s" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D100" t="s" s="9">
-        <v>266</v>
+        <v>330</v>
       </c>
       <c r="E100" t="s" s="9">
-        <v>267</v>
+        <v>331</v>
       </c>
       <c r="F100" s="10"/>
       <c r="G100" t="s" s="9">
-        <v>269</v>
+        <v>110</v>
       </c>
       <c r="H100" t="s" s="9">
-        <v>270</v>
+        <v>111</v>
+      </c>
+      <c r="I100" t="s" s="9">
+        <v>112</v>
       </c>
     </row>
     <row r="101" ht="13.55" customHeight="1">
@@ -4875,23 +5397,26 @@
         <v>99</v>
       </c>
       <c r="B101" t="s" s="8">
-        <v>271</v>
+        <v>336</v>
       </c>
       <c r="C101" t="s" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D101" t="s" s="9">
-        <v>266</v>
+        <v>330</v>
       </c>
       <c r="E101" t="s" s="9">
-        <v>267</v>
+        <v>331</v>
       </c>
       <c r="F101" s="10"/>
       <c r="G101" t="s" s="9">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="H101" t="s" s="9">
-        <v>90</v>
+        <v>111</v>
+      </c>
+      <c r="I101" t="s" s="9">
+        <v>112</v>
       </c>
     </row>
     <row r="102" ht="13.55" customHeight="1">
@@ -4899,23 +5424,26 @@
         <v>100</v>
       </c>
       <c r="B102" t="s" s="8">
-        <v>271</v>
+        <v>332</v>
       </c>
       <c r="C102" t="s" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D102" t="s" s="9">
-        <v>266</v>
+        <v>330</v>
       </c>
       <c r="E102" t="s" s="9">
-        <v>267</v>
+        <v>331</v>
       </c>
       <c r="F102" s="10"/>
       <c r="G102" t="s" s="9">
-        <v>89</v>
+        <v>333</v>
       </c>
       <c r="H102" t="s" s="9">
-        <v>90</v>
+        <v>334</v>
+      </c>
+      <c r="I102" t="s" s="9">
+        <v>335</v>
       </c>
     </row>
     <row r="103" ht="13.55" customHeight="1">
@@ -4923,23 +5451,26 @@
         <v>101</v>
       </c>
       <c r="B103" t="s" s="8">
-        <v>271</v>
+        <v>332</v>
       </c>
       <c r="C103" t="s" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D103" t="s" s="9">
-        <v>266</v>
+        <v>330</v>
       </c>
       <c r="E103" t="s" s="9">
-        <v>267</v>
+        <v>331</v>
       </c>
       <c r="F103" s="10"/>
       <c r="G103" t="s" s="9">
-        <v>89</v>
+        <v>333</v>
       </c>
       <c r="H103" t="s" s="9">
-        <v>90</v>
+        <v>334</v>
+      </c>
+      <c r="I103" t="s" s="9">
+        <v>335</v>
       </c>
     </row>
     <row r="104" ht="13.55" customHeight="1">
@@ -4947,23 +5478,26 @@
         <v>102</v>
       </c>
       <c r="B104" t="s" s="8">
-        <v>268</v>
+        <v>332</v>
       </c>
       <c r="C104" t="s" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D104" t="s" s="9">
-        <v>266</v>
+        <v>330</v>
       </c>
       <c r="E104" t="s" s="9">
-        <v>267</v>
+        <v>331</v>
       </c>
       <c r="F104" s="10"/>
       <c r="G104" t="s" s="9">
-        <v>269</v>
+        <v>333</v>
       </c>
       <c r="H104" t="s" s="9">
-        <v>270</v>
+        <v>334</v>
+      </c>
+      <c r="I104" t="s" s="9">
+        <v>335</v>
       </c>
     </row>
     <row r="105" ht="13.55" customHeight="1">
@@ -4971,23 +5505,26 @@
         <v>103</v>
       </c>
       <c r="B105" t="s" s="8">
-        <v>268</v>
+        <v>332</v>
       </c>
       <c r="C105" t="s" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D105" t="s" s="9">
-        <v>266</v>
+        <v>330</v>
       </c>
       <c r="E105" t="s" s="9">
-        <v>267</v>
+        <v>331</v>
       </c>
       <c r="F105" s="10"/>
       <c r="G105" t="s" s="9">
-        <v>269</v>
+        <v>333</v>
       </c>
       <c r="H105" t="s" s="9">
-        <v>270</v>
+        <v>334</v>
+      </c>
+      <c r="I105" t="s" s="9">
+        <v>335</v>
       </c>
     </row>
     <row r="106" ht="13.55" customHeight="1">
@@ -4995,23 +5532,26 @@
         <v>104</v>
       </c>
       <c r="B106" t="s" s="8">
-        <v>268</v>
+        <v>337</v>
       </c>
       <c r="C106" t="s" s="9">
-        <v>20</v>
+        <v>338</v>
       </c>
       <c r="D106" t="s" s="9">
-        <v>266</v>
+        <v>330</v>
       </c>
       <c r="E106" t="s" s="9">
-        <v>267</v>
+        <v>331</v>
       </c>
       <c r="F106" s="10"/>
       <c r="G106" t="s" s="9">
-        <v>269</v>
+        <v>339</v>
       </c>
       <c r="H106" t="s" s="9">
-        <v>270</v>
+        <v>340</v>
+      </c>
+      <c r="I106" t="s" s="9">
+        <v>341</v>
       </c>
     </row>
     <row r="107" ht="13.55" customHeight="1">
@@ -5019,23 +5559,26 @@
         <v>105</v>
       </c>
       <c r="B107" t="s" s="8">
-        <v>268</v>
+        <v>342</v>
       </c>
       <c r="C107" t="s" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D107" t="s" s="9">
-        <v>266</v>
+        <v>330</v>
       </c>
       <c r="E107" t="s" s="9">
-        <v>267</v>
+        <v>331</v>
       </c>
       <c r="F107" s="10"/>
       <c r="G107" t="s" s="9">
-        <v>269</v>
+        <v>343</v>
       </c>
       <c r="H107" t="s" s="9">
-        <v>270</v>
+        <v>344</v>
+      </c>
+      <c r="I107" t="s" s="9">
+        <v>345</v>
       </c>
     </row>
     <row r="108" ht="13.55" customHeight="1">
@@ -5043,23 +5586,26 @@
         <v>106</v>
       </c>
       <c r="B108" t="s" s="8">
-        <v>272</v>
+        <v>346</v>
       </c>
       <c r="C108" t="s" s="9">
-        <v>273</v>
+        <v>347</v>
       </c>
       <c r="D108" t="s" s="9">
-        <v>266</v>
+        <v>348</v>
       </c>
       <c r="E108" t="s" s="9">
-        <v>267</v>
+        <v>349</v>
       </c>
       <c r="F108" s="10"/>
       <c r="G108" t="s" s="9">
-        <v>274</v>
+        <v>350</v>
       </c>
       <c r="H108" t="s" s="9">
-        <v>275</v>
+        <v>252</v>
+      </c>
+      <c r="I108" t="s" s="9">
+        <v>351</v>
       </c>
     </row>
     <row r="109" ht="13.55" customHeight="1">
@@ -5067,23 +5613,26 @@
         <v>107</v>
       </c>
       <c r="B109" t="s" s="8">
-        <v>276</v>
+        <v>352</v>
       </c>
       <c r="C109" t="s" s="9">
-        <v>20</v>
+        <v>347</v>
       </c>
       <c r="D109" t="s" s="9">
-        <v>266</v>
+        <v>348</v>
       </c>
       <c r="E109" t="s" s="9">
-        <v>267</v>
+        <v>349</v>
       </c>
       <c r="F109" s="10"/>
       <c r="G109" t="s" s="9">
-        <v>277</v>
+        <v>213</v>
       </c>
       <c r="H109" t="s" s="9">
-        <v>278</v>
+        <v>214</v>
+      </c>
+      <c r="I109" t="s" s="9">
+        <v>215</v>
       </c>
     </row>
     <row r="110" ht="13.55" customHeight="1">
@@ -5091,23 +5640,26 @@
         <v>108</v>
       </c>
       <c r="B110" t="s" s="8">
-        <v>279</v>
+        <v>353</v>
       </c>
       <c r="C110" t="s" s="9">
-        <v>280</v>
+        <v>354</v>
       </c>
       <c r="D110" t="s" s="9">
-        <v>281</v>
+        <v>348</v>
       </c>
       <c r="E110" t="s" s="9">
-        <v>282</v>
+        <v>349</v>
       </c>
       <c r="F110" s="10"/>
       <c r="G110" t="s" s="9">
-        <v>283</v>
+        <v>355</v>
       </c>
       <c r="H110" t="s" s="9">
-        <v>208</v>
+        <v>356</v>
+      </c>
+      <c r="I110" t="s" s="9">
+        <v>357</v>
       </c>
     </row>
     <row r="111" ht="13.55" customHeight="1">
@@ -5115,23 +5667,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="s" s="8">
-        <v>284</v>
+        <v>352</v>
       </c>
       <c r="C111" t="s" s="9">
-        <v>280</v>
+        <v>358</v>
       </c>
       <c r="D111" t="s" s="9">
-        <v>281</v>
+        <v>348</v>
       </c>
       <c r="E111" t="s" s="9">
-        <v>282</v>
-      </c>
-      <c r="F111" s="10"/>
+        <v>349</v>
+      </c>
+      <c r="F111" t="s" s="9">
+        <v>359</v>
+      </c>
       <c r="G111" t="s" s="9">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="H111" t="s" s="9">
-        <v>178</v>
+        <v>214</v>
+      </c>
+      <c r="I111" t="s" s="9">
+        <v>215</v>
       </c>
     </row>
     <row r="112" ht="13.55" customHeight="1">
@@ -5139,23 +5696,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="s" s="8">
-        <v>285</v>
+        <v>360</v>
       </c>
       <c r="C112" t="s" s="9">
-        <v>286</v>
+        <v>361</v>
       </c>
       <c r="D112" t="s" s="9">
-        <v>281</v>
+        <v>348</v>
       </c>
       <c r="E112" t="s" s="9">
-        <v>282</v>
-      </c>
-      <c r="F112" s="10"/>
+        <v>349</v>
+      </c>
+      <c r="F112" t="s" s="9">
+        <v>359</v>
+      </c>
       <c r="G112" t="s" s="9">
-        <v>287</v>
+        <v>213</v>
       </c>
       <c r="H112" t="s" s="9">
-        <v>288</v>
+        <v>214</v>
+      </c>
+      <c r="I112" t="s" s="9">
+        <v>215</v>
       </c>
     </row>
     <row r="113" ht="13.55" customHeight="1">
@@ -5163,25 +5725,26 @@
         <v>111</v>
       </c>
       <c r="B113" t="s" s="8">
-        <v>284</v>
+        <v>362</v>
       </c>
       <c r="C113" t="s" s="9">
-        <v>289</v>
+        <v>347</v>
       </c>
       <c r="D113" t="s" s="9">
-        <v>281</v>
+        <v>348</v>
       </c>
       <c r="E113" t="s" s="9">
-        <v>282</v>
-      </c>
-      <c r="F113" t="s" s="9">
-        <v>290</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="F113" s="10"/>
       <c r="G113" t="s" s="9">
-        <v>177</v>
+        <v>363</v>
       </c>
       <c r="H113" t="s" s="9">
-        <v>178</v>
+        <v>364</v>
+      </c>
+      <c r="I113" t="s" s="9">
+        <v>365</v>
       </c>
     </row>
     <row r="114" ht="13.55" customHeight="1">
@@ -5189,25 +5752,26 @@
         <v>112</v>
       </c>
       <c r="B114" t="s" s="8">
-        <v>291</v>
+        <v>366</v>
       </c>
       <c r="C114" t="s" s="9">
-        <v>292</v>
+        <v>367</v>
       </c>
       <c r="D114" t="s" s="9">
-        <v>281</v>
+        <v>348</v>
       </c>
       <c r="E114" t="s" s="9">
-        <v>282</v>
-      </c>
-      <c r="F114" t="s" s="9">
-        <v>290</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="F114" s="10"/>
       <c r="G114" t="s" s="9">
-        <v>177</v>
+        <v>368</v>
       </c>
       <c r="H114" t="s" s="9">
-        <v>178</v>
+        <v>369</v>
+      </c>
+      <c r="I114" t="s" s="9">
+        <v>370</v>
       </c>
     </row>
     <row r="115" ht="13.55" customHeight="1">
@@ -5215,21 +5779,26 @@
         <v>113</v>
       </c>
       <c r="B115" t="s" s="8">
-        <v>175</v>
-      </c>
-      <c r="C115" s="10"/>
+        <v>371</v>
+      </c>
+      <c r="C115" t="s" s="9">
+        <v>367</v>
+      </c>
       <c r="D115" t="s" s="9">
-        <v>281</v>
+        <v>348</v>
       </c>
       <c r="E115" t="s" s="9">
-        <v>282</v>
+        <v>349</v>
       </c>
       <c r="F115" s="10"/>
       <c r="G115" t="s" s="9">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="H115" t="s" s="9">
-        <v>178</v>
+        <v>79</v>
+      </c>
+      <c r="I115" t="s" s="9">
+        <v>80</v>
       </c>
     </row>
     <row r="116" ht="13.55" customHeight="1">
@@ -5237,23 +5806,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="s" s="8">
-        <v>293</v>
+        <v>372</v>
       </c>
       <c r="C116" t="s" s="9">
-        <v>280</v>
+        <v>373</v>
       </c>
       <c r="D116" t="s" s="9">
-        <v>281</v>
+        <v>348</v>
       </c>
       <c r="E116" t="s" s="9">
-        <v>282</v>
-      </c>
-      <c r="F116" s="10"/>
+        <v>349</v>
+      </c>
+      <c r="F116" t="s" s="9">
+        <v>374</v>
+      </c>
       <c r="G116" t="s" s="9">
-        <v>294</v>
+        <v>141</v>
       </c>
       <c r="H116" t="s" s="9">
-        <v>295</v>
+        <v>142</v>
+      </c>
+      <c r="I116" t="s" s="9">
+        <v>143</v>
       </c>
     </row>
     <row r="117" ht="13.55" customHeight="1">
@@ -5261,23 +5835,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="s" s="8">
+        <v>375</v>
+      </c>
+      <c r="C117" t="s" s="9">
+        <v>373</v>
+      </c>
+      <c r="D117" t="s" s="9">
+        <v>348</v>
+      </c>
+      <c r="E117" t="s" s="9">
+        <v>349</v>
+      </c>
+      <c r="F117" t="s" s="9">
+        <v>374</v>
+      </c>
+      <c r="G117" t="s" s="9">
+        <v>294</v>
+      </c>
+      <c r="H117" t="s" s="9">
+        <v>295</v>
+      </c>
+      <c r="I117" t="s" s="9">
         <v>296</v>
-      </c>
-      <c r="C117" t="s" s="9">
-        <v>297</v>
-      </c>
-      <c r="D117" t="s" s="9">
-        <v>281</v>
-      </c>
-      <c r="E117" t="s" s="9">
-        <v>282</v>
-      </c>
-      <c r="F117" s="10"/>
-      <c r="G117" t="s" s="9">
-        <v>298</v>
-      </c>
-      <c r="H117" t="s" s="9">
-        <v>299</v>
       </c>
     </row>
     <row r="118" ht="13.55" customHeight="1">
@@ -5285,23 +5864,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="s" s="8">
-        <v>300</v>
+        <v>376</v>
       </c>
       <c r="C118" t="s" s="9">
-        <v>297</v>
+        <v>373</v>
       </c>
       <c r="D118" t="s" s="9">
-        <v>281</v>
+        <v>348</v>
       </c>
       <c r="E118" t="s" s="9">
-        <v>282</v>
-      </c>
-      <c r="F118" s="10"/>
+        <v>349</v>
+      </c>
+      <c r="F118" t="s" s="9">
+        <v>374</v>
+      </c>
       <c r="G118" t="s" s="9">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="H118" t="s" s="9">
-        <v>66</v>
+        <v>291</v>
+      </c>
+      <c r="I118" t="s" s="9">
+        <v>292</v>
       </c>
     </row>
     <row r="119" ht="13.55" customHeight="1">
@@ -5309,25 +5893,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="s" s="8">
-        <v>301</v>
+        <v>377</v>
       </c>
       <c r="C119" t="s" s="9">
-        <v>302</v>
+        <v>373</v>
       </c>
       <c r="D119" t="s" s="9">
-        <v>281</v>
+        <v>348</v>
       </c>
       <c r="E119" t="s" s="9">
-        <v>282</v>
+        <v>349</v>
       </c>
       <c r="F119" t="s" s="9">
-        <v>303</v>
+        <v>374</v>
       </c>
       <c r="G119" t="s" s="9">
-        <v>114</v>
+        <v>286</v>
       </c>
       <c r="H119" t="s" s="9">
-        <v>115</v>
+        <v>287</v>
+      </c>
+      <c r="I119" t="s" s="9">
+        <v>288</v>
       </c>
     </row>
     <row r="120" ht="13.55" customHeight="1">
@@ -5335,25 +5922,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="s" s="8">
-        <v>304</v>
+        <v>378</v>
       </c>
       <c r="C120" t="s" s="9">
-        <v>302</v>
+        <v>373</v>
       </c>
       <c r="D120" t="s" s="9">
-        <v>281</v>
+        <v>348</v>
       </c>
       <c r="E120" t="s" s="9">
-        <v>282</v>
+        <v>349</v>
       </c>
       <c r="F120" t="s" s="9">
-        <v>303</v>
+        <v>379</v>
       </c>
       <c r="G120" t="s" s="9">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="H120" t="s" s="9">
-        <v>241</v>
+        <v>214</v>
+      </c>
+      <c r="I120" t="s" s="9">
+        <v>215</v>
       </c>
     </row>
     <row r="121" ht="13.55" customHeight="1">
@@ -5361,25 +5951,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="s" s="8">
-        <v>305</v>
+        <v>380</v>
       </c>
       <c r="C121" t="s" s="9">
-        <v>302</v>
+        <v>373</v>
       </c>
       <c r="D121" t="s" s="9">
-        <v>281</v>
+        <v>348</v>
       </c>
       <c r="E121" t="s" s="9">
-        <v>282</v>
+        <v>349</v>
       </c>
       <c r="F121" t="s" s="9">
-        <v>303</v>
+        <v>381</v>
       </c>
       <c r="G121" t="s" s="9">
-        <v>237</v>
+        <v>78</v>
       </c>
       <c r="H121" t="s" s="9">
-        <v>238</v>
+        <v>79</v>
+      </c>
+      <c r="I121" t="s" s="9">
+        <v>80</v>
       </c>
     </row>
     <row r="122" ht="13.55" customHeight="1">
@@ -5387,25 +5980,28 @@
         <v>120</v>
       </c>
       <c r="B122" t="s" s="8">
-        <v>306</v>
+        <v>382</v>
       </c>
       <c r="C122" t="s" s="9">
-        <v>302</v>
+        <v>373</v>
       </c>
       <c r="D122" t="s" s="9">
-        <v>281</v>
+        <v>348</v>
       </c>
       <c r="E122" t="s" s="9">
-        <v>282</v>
+        <v>349</v>
       </c>
       <c r="F122" t="s" s="9">
-        <v>303</v>
+        <v>381</v>
       </c>
       <c r="G122" t="s" s="9">
-        <v>234</v>
+        <v>368</v>
       </c>
       <c r="H122" t="s" s="9">
-        <v>235</v>
+        <v>369</v>
+      </c>
+      <c r="I122" t="s" s="9">
+        <v>370</v>
       </c>
     </row>
     <row r="123" ht="13.55" customHeight="1">
@@ -5413,25 +6009,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="s" s="8">
-        <v>307</v>
+        <v>383</v>
       </c>
       <c r="C123" t="s" s="9">
-        <v>302</v>
+        <v>373</v>
       </c>
       <c r="D123" t="s" s="9">
-        <v>281</v>
+        <v>348</v>
       </c>
       <c r="E123" t="s" s="9">
-        <v>282</v>
+        <v>349</v>
       </c>
       <c r="F123" t="s" s="9">
-        <v>308</v>
+        <v>384</v>
       </c>
       <c r="G123" t="s" s="9">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="H123" t="s" s="9">
-        <v>178</v>
+        <v>94</v>
+      </c>
+      <c r="I123" t="s" s="9">
+        <v>95</v>
       </c>
     </row>
     <row r="124" ht="13.55" customHeight="1">
@@ -5439,25 +6038,26 @@
         <v>122</v>
       </c>
       <c r="B124" t="s" s="8">
-        <v>309</v>
+        <v>385</v>
       </c>
       <c r="C124" t="s" s="9">
-        <v>302</v>
+        <v>386</v>
       </c>
       <c r="D124" t="s" s="9">
-        <v>281</v>
+        <v>348</v>
       </c>
       <c r="E124" t="s" s="9">
-        <v>282</v>
-      </c>
-      <c r="F124" t="s" s="9">
-        <v>310</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="F124" s="10"/>
       <c r="G124" t="s" s="9">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="H124" t="s" s="9">
-        <v>66</v>
+        <v>94</v>
+      </c>
+      <c r="I124" t="s" s="9">
+        <v>95</v>
       </c>
     </row>
     <row r="125" ht="13.55" customHeight="1">
@@ -5465,25 +6065,28 @@
         <v>123</v>
       </c>
       <c r="B125" t="s" s="8">
-        <v>311</v>
+        <v>387</v>
       </c>
       <c r="C125" t="s" s="9">
-        <v>302</v>
+        <v>388</v>
       </c>
       <c r="D125" t="s" s="9">
-        <v>281</v>
+        <v>348</v>
       </c>
       <c r="E125" t="s" s="9">
-        <v>282</v>
+        <v>349</v>
       </c>
       <c r="F125" t="s" s="9">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="G125" t="s" s="9">
-        <v>298</v>
+        <v>213</v>
       </c>
       <c r="H125" t="s" s="9">
-        <v>299</v>
+        <v>214</v>
+      </c>
+      <c r="I125" t="s" s="9">
+        <v>215</v>
       </c>
     </row>
     <row r="126" ht="13.55" customHeight="1">
@@ -5491,25 +6094,28 @@
         <v>124</v>
       </c>
       <c r="B126" t="s" s="8">
-        <v>312</v>
+        <v>389</v>
       </c>
       <c r="C126" t="s" s="9">
-        <v>302</v>
+        <v>373</v>
       </c>
       <c r="D126" t="s" s="9">
-        <v>281</v>
+        <v>348</v>
       </c>
       <c r="E126" t="s" s="9">
-        <v>282</v>
+        <v>349</v>
       </c>
       <c r="F126" t="s" s="9">
-        <v>313</v>
+        <v>374</v>
       </c>
       <c r="G126" t="s" s="9">
-        <v>75</v>
+        <v>298</v>
       </c>
       <c r="H126" t="s" s="9">
-        <v>76</v>
+        <v>299</v>
+      </c>
+      <c r="I126" t="s" s="9">
+        <v>300</v>
       </c>
     </row>
     <row r="127" ht="13.55" customHeight="1">
@@ -5517,23 +6123,28 @@
         <v>125</v>
       </c>
       <c r="B127" t="s" s="8">
-        <v>314</v>
+        <v>390</v>
       </c>
       <c r="C127" t="s" s="9">
-        <v>315</v>
+        <v>373</v>
       </c>
       <c r="D127" t="s" s="9">
-        <v>281</v>
+        <v>348</v>
       </c>
       <c r="E127" t="s" s="9">
-        <v>282</v>
-      </c>
-      <c r="F127" s="10"/>
+        <v>349</v>
+      </c>
+      <c r="F127" t="s" s="9">
+        <v>374</v>
+      </c>
       <c r="G127" t="s" s="9">
-        <v>75</v>
+        <v>302</v>
       </c>
       <c r="H127" t="s" s="9">
-        <v>76</v>
+        <v>303</v>
+      </c>
+      <c r="I127" t="s" s="9">
+        <v>304</v>
       </c>
     </row>
     <row r="128" ht="13.55" customHeight="1">
@@ -5541,25 +6152,28 @@
         <v>126</v>
       </c>
       <c r="B128" t="s" s="8">
-        <v>316</v>
+        <v>391</v>
       </c>
       <c r="C128" t="s" s="9">
-        <v>317</v>
+        <v>373</v>
       </c>
       <c r="D128" t="s" s="9">
-        <v>281</v>
+        <v>348</v>
       </c>
       <c r="E128" t="s" s="9">
-        <v>282</v>
+        <v>349</v>
       </c>
       <c r="F128" t="s" s="9">
-        <v>290</v>
+        <v>374</v>
       </c>
       <c r="G128" t="s" s="9">
-        <v>177</v>
+        <v>306</v>
       </c>
       <c r="H128" t="s" s="9">
-        <v>178</v>
+        <v>307</v>
+      </c>
+      <c r="I128" t="s" s="9">
+        <v>308</v>
       </c>
     </row>
     <row r="129" ht="13.55" customHeight="1">
@@ -5567,25 +6181,28 @@
         <v>127</v>
       </c>
       <c r="B129" t="s" s="8">
-        <v>318</v>
+        <v>392</v>
       </c>
       <c r="C129" t="s" s="9">
-        <v>302</v>
+        <v>373</v>
       </c>
       <c r="D129" t="s" s="9">
-        <v>281</v>
+        <v>348</v>
       </c>
       <c r="E129" t="s" s="9">
-        <v>282</v>
+        <v>349</v>
       </c>
       <c r="F129" t="s" s="9">
-        <v>303</v>
+        <v>374</v>
       </c>
       <c r="G129" t="s" s="9">
-        <v>243</v>
+        <v>310</v>
       </c>
       <c r="H129" t="s" s="9">
-        <v>244</v>
+        <v>311</v>
+      </c>
+      <c r="I129" t="s" s="9">
+        <v>312</v>
       </c>
     </row>
     <row r="130" ht="13.55" customHeight="1">
@@ -5593,25 +6210,28 @@
         <v>128</v>
       </c>
       <c r="B130" t="s" s="8">
-        <v>319</v>
+        <v>393</v>
       </c>
       <c r="C130" t="s" s="9">
-        <v>302</v>
+        <v>373</v>
       </c>
       <c r="D130" t="s" s="9">
-        <v>281</v>
+        <v>348</v>
       </c>
       <c r="E130" t="s" s="9">
-        <v>282</v>
+        <v>349</v>
       </c>
       <c r="F130" t="s" s="9">
-        <v>303</v>
+        <v>374</v>
       </c>
       <c r="G130" t="s" s="9">
-        <v>246</v>
+        <v>314</v>
       </c>
       <c r="H130" t="s" s="9">
-        <v>247</v>
+        <v>315</v>
+      </c>
+      <c r="I130" t="s" s="9">
+        <v>316</v>
       </c>
     </row>
     <row r="131" ht="13.55" customHeight="1">
@@ -5619,25 +6239,28 @@
         <v>129</v>
       </c>
       <c r="B131" t="s" s="8">
+        <v>394</v>
+      </c>
+      <c r="C131" t="s" s="9">
+        <v>373</v>
+      </c>
+      <c r="D131" t="s" s="9">
+        <v>348</v>
+      </c>
+      <c r="E131" t="s" s="9">
+        <v>349</v>
+      </c>
+      <c r="F131" t="s" s="9">
+        <v>374</v>
+      </c>
+      <c r="G131" t="s" s="9">
+        <v>318</v>
+      </c>
+      <c r="H131" t="s" s="9">
+        <v>319</v>
+      </c>
+      <c r="I131" t="s" s="9">
         <v>320</v>
-      </c>
-      <c r="C131" t="s" s="9">
-        <v>302</v>
-      </c>
-      <c r="D131" t="s" s="9">
-        <v>281</v>
-      </c>
-      <c r="E131" t="s" s="9">
-        <v>282</v>
-      </c>
-      <c r="F131" t="s" s="9">
-        <v>303</v>
-      </c>
-      <c r="G131" t="s" s="9">
-        <v>249</v>
-      </c>
-      <c r="H131" t="s" s="9">
-        <v>250</v>
       </c>
     </row>
     <row r="132" ht="13.55" customHeight="1">
@@ -5645,25 +6268,28 @@
         <v>130</v>
       </c>
       <c r="B132" t="s" s="8">
-        <v>321</v>
+        <v>395</v>
       </c>
       <c r="C132" t="s" s="9">
-        <v>302</v>
+        <v>373</v>
       </c>
       <c r="D132" t="s" s="9">
-        <v>281</v>
+        <v>348</v>
       </c>
       <c r="E132" t="s" s="9">
-        <v>282</v>
+        <v>349</v>
       </c>
       <c r="F132" t="s" s="9">
-        <v>303</v>
+        <v>374</v>
       </c>
       <c r="G132" t="s" s="9">
-        <v>252</v>
+        <v>322</v>
       </c>
       <c r="H132" t="s" s="9">
-        <v>253</v>
+        <v>323</v>
+      </c>
+      <c r="I132" t="s" s="9">
+        <v>324</v>
       </c>
     </row>
     <row r="133" ht="13.55" customHeight="1">
@@ -5671,25 +6297,28 @@
         <v>131</v>
       </c>
       <c r="B133" t="s" s="8">
-        <v>322</v>
+        <v>396</v>
       </c>
       <c r="C133" t="s" s="9">
-        <v>302</v>
+        <v>373</v>
       </c>
       <c r="D133" t="s" s="9">
-        <v>281</v>
+        <v>348</v>
       </c>
       <c r="E133" t="s" s="9">
-        <v>282</v>
+        <v>349</v>
       </c>
       <c r="F133" t="s" s="9">
-        <v>303</v>
+        <v>374</v>
       </c>
       <c r="G133" t="s" s="9">
-        <v>255</v>
+        <v>326</v>
       </c>
       <c r="H133" t="s" s="9">
-        <v>323</v>
+        <v>327</v>
+      </c>
+      <c r="I133" t="s" s="9">
+        <v>328</v>
       </c>
     </row>
     <row r="134" ht="13.55" customHeight="1">
@@ -5697,25 +6326,26 @@
         <v>132</v>
       </c>
       <c r="B134" t="s" s="8">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="C134" t="s" s="9">
-        <v>302</v>
+        <v>397</v>
       </c>
       <c r="D134" t="s" s="9">
-        <v>281</v>
+        <v>398</v>
       </c>
       <c r="E134" t="s" s="9">
-        <v>282</v>
-      </c>
-      <c r="F134" t="s" s="9">
-        <v>303</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="F134" s="10"/>
       <c r="G134" t="s" s="9">
-        <v>257</v>
+        <v>368</v>
       </c>
       <c r="H134" t="s" s="9">
-        <v>258</v>
+        <v>369</v>
+      </c>
+      <c r="I134" t="s" s="9">
+        <v>370</v>
       </c>
     </row>
     <row r="135" ht="13.55" customHeight="1">
@@ -5723,25 +6353,26 @@
         <v>133</v>
       </c>
       <c r="B135" t="s" s="8">
-        <v>325</v>
+        <v>400</v>
       </c>
       <c r="C135" t="s" s="9">
-        <v>302</v>
+        <v>401</v>
       </c>
       <c r="D135" t="s" s="9">
-        <v>281</v>
+        <v>398</v>
       </c>
       <c r="E135" t="s" s="9">
-        <v>282</v>
-      </c>
-      <c r="F135" t="s" s="9">
-        <v>303</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="F135" s="10"/>
       <c r="G135" t="s" s="9">
-        <v>260</v>
+        <v>368</v>
       </c>
       <c r="H135" t="s" s="9">
-        <v>261</v>
+        <v>369</v>
+      </c>
+      <c r="I135" t="s" s="9">
+        <v>370</v>
       </c>
     </row>
     <row r="136" ht="13.55" customHeight="1">
@@ -5749,25 +6380,26 @@
         <v>134</v>
       </c>
       <c r="B136" t="s" s="8">
-        <v>326</v>
+        <v>402</v>
       </c>
       <c r="C136" t="s" s="9">
-        <v>302</v>
+        <v>403</v>
       </c>
       <c r="D136" t="s" s="9">
-        <v>281</v>
+        <v>398</v>
       </c>
       <c r="E136" t="s" s="9">
-        <v>282</v>
-      </c>
-      <c r="F136" t="s" s="9">
-        <v>303</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="F136" s="10"/>
       <c r="G136" t="s" s="9">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="H136" t="s" s="9">
-        <v>264</v>
+        <v>228</v>
+      </c>
+      <c r="I136" t="s" s="9">
+        <v>229</v>
       </c>
     </row>
     <row r="137" ht="13.55" customHeight="1">
@@ -5775,23 +6407,26 @@
         <v>135</v>
       </c>
       <c r="B137" t="s" s="8">
-        <v>296</v>
+        <v>402</v>
       </c>
       <c r="C137" t="s" s="9">
-        <v>327</v>
+        <v>403</v>
       </c>
       <c r="D137" t="s" s="9">
-        <v>328</v>
+        <v>398</v>
       </c>
       <c r="E137" t="s" s="9">
-        <v>329</v>
+        <v>399</v>
       </c>
       <c r="F137" s="10"/>
       <c r="G137" t="s" s="9">
-        <v>298</v>
+        <v>227</v>
       </c>
       <c r="H137" t="s" s="9">
-        <v>299</v>
+        <v>228</v>
+      </c>
+      <c r="I137" t="s" s="9">
+        <v>229</v>
       </c>
     </row>
     <row r="138" ht="13.55" customHeight="1">
@@ -5799,23 +6434,26 @@
         <v>136</v>
       </c>
       <c r="B138" t="s" s="8">
-        <v>330</v>
+        <v>404</v>
       </c>
       <c r="C138" t="s" s="9">
-        <v>331</v>
+        <v>405</v>
       </c>
       <c r="D138" t="s" s="9">
-        <v>328</v>
+        <v>398</v>
       </c>
       <c r="E138" t="s" s="9">
-        <v>329</v>
+        <v>399</v>
       </c>
       <c r="F138" s="10"/>
       <c r="G138" t="s" s="9">
-        <v>298</v>
+        <v>406</v>
       </c>
       <c r="H138" t="s" s="9">
-        <v>299</v>
+        <v>407</v>
+      </c>
+      <c r="I138" t="s" s="9">
+        <v>408</v>
       </c>
     </row>
     <row r="139" ht="13.55" customHeight="1">
@@ -5823,23 +6461,26 @@
         <v>137</v>
       </c>
       <c r="B139" t="s" s="8">
-        <v>332</v>
+        <v>409</v>
       </c>
       <c r="C139" t="s" s="9">
-        <v>333</v>
+        <v>410</v>
       </c>
       <c r="D139" t="s" s="9">
-        <v>328</v>
+        <v>398</v>
       </c>
       <c r="E139" t="s" s="9">
-        <v>329</v>
+        <v>399</v>
       </c>
       <c r="F139" s="10"/>
       <c r="G139" t="s" s="9">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="H139" t="s" s="9">
-        <v>189</v>
+        <v>79</v>
+      </c>
+      <c r="I139" t="s" s="9">
+        <v>80</v>
       </c>
     </row>
     <row r="140" ht="13.55" customHeight="1">
@@ -5847,23 +6488,26 @@
         <v>138</v>
       </c>
       <c r="B140" t="s" s="8">
-        <v>332</v>
+        <v>411</v>
       </c>
       <c r="C140" t="s" s="9">
-        <v>333</v>
+        <v>412</v>
       </c>
       <c r="D140" t="s" s="9">
-        <v>328</v>
+        <v>413</v>
       </c>
       <c r="E140" t="s" s="9">
-        <v>329</v>
+        <v>414</v>
       </c>
       <c r="F140" s="10"/>
       <c r="G140" t="s" s="9">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="H140" t="s" s="9">
-        <v>189</v>
+        <v>194</v>
+      </c>
+      <c r="I140" t="s" s="9">
+        <v>195</v>
       </c>
     </row>
     <row r="141" ht="13.55" customHeight="1">
@@ -5871,23 +6515,26 @@
         <v>139</v>
       </c>
       <c r="B141" t="s" s="8">
-        <v>334</v>
+        <v>415</v>
       </c>
       <c r="C141" t="s" s="9">
-        <v>335</v>
+        <v>416</v>
       </c>
       <c r="D141" t="s" s="9">
-        <v>328</v>
+        <v>413</v>
       </c>
       <c r="E141" t="s" s="9">
-        <v>329</v>
+        <v>414</v>
       </c>
       <c r="F141" s="10"/>
       <c r="G141" t="s" s="9">
-        <v>336</v>
+        <v>193</v>
       </c>
       <c r="H141" t="s" s="9">
-        <v>337</v>
+        <v>194</v>
+      </c>
+      <c r="I141" t="s" s="9">
+        <v>195</v>
       </c>
     </row>
     <row r="142" ht="13.55" customHeight="1">
@@ -5895,23 +6542,26 @@
         <v>140</v>
       </c>
       <c r="B142" t="s" s="8">
-        <v>338</v>
+        <v>417</v>
       </c>
       <c r="C142" t="s" s="9">
-        <v>339</v>
+        <v>418</v>
       </c>
       <c r="D142" t="s" s="9">
-        <v>328</v>
+        <v>413</v>
       </c>
       <c r="E142" t="s" s="9">
-        <v>329</v>
+        <v>414</v>
       </c>
       <c r="F142" s="10"/>
       <c r="G142" t="s" s="9">
-        <v>65</v>
+        <v>419</v>
       </c>
       <c r="H142" t="s" s="9">
-        <v>66</v>
+        <v>420</v>
+      </c>
+      <c r="I142" t="s" s="9">
+        <v>421</v>
       </c>
     </row>
     <row r="143" ht="13.55" customHeight="1">
@@ -5919,95 +6569,26 @@
         <v>141</v>
       </c>
       <c r="B143" t="s" s="8">
-        <v>340</v>
+        <v>422</v>
       </c>
       <c r="C143" t="s" s="9">
-        <v>341</v>
+        <v>423</v>
       </c>
       <c r="D143" t="s" s="9">
-        <v>342</v>
+        <v>413</v>
       </c>
       <c r="E143" t="s" s="9">
-        <v>343</v>
+        <v>414</v>
       </c>
       <c r="F143" s="10"/>
       <c r="G143" t="s" s="9">
-        <v>160</v>
+        <v>424</v>
       </c>
       <c r="H143" t="s" s="9">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="144" ht="13.55" customHeight="1">
-      <c r="A144" s="4">
-        <v>142</v>
-      </c>
-      <c r="B144" t="s" s="8">
-        <v>344</v>
-      </c>
-      <c r="C144" t="s" s="9">
-        <v>345</v>
-      </c>
-      <c r="D144" t="s" s="9">
-        <v>342</v>
-      </c>
-      <c r="E144" t="s" s="9">
-        <v>343</v>
-      </c>
-      <c r="F144" s="10"/>
-      <c r="G144" t="s" s="9">
-        <v>160</v>
-      </c>
-      <c r="H144" t="s" s="9">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="145" ht="13.55" customHeight="1">
-      <c r="A145" s="4">
-        <v>143</v>
-      </c>
-      <c r="B145" t="s" s="8">
-        <v>346</v>
-      </c>
-      <c r="C145" t="s" s="9">
-        <v>347</v>
-      </c>
-      <c r="D145" t="s" s="9">
-        <v>342</v>
-      </c>
-      <c r="E145" t="s" s="9">
-        <v>343</v>
-      </c>
-      <c r="F145" s="10"/>
-      <c r="G145" t="s" s="9">
-        <v>348</v>
-      </c>
-      <c r="H145" t="s" s="9">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="146" ht="13.55" customHeight="1">
-      <c r="A146" s="4">
-        <v>144</v>
-      </c>
-      <c r="B146" t="s" s="8">
-        <v>350</v>
-      </c>
-      <c r="C146" t="s" s="9">
-        <v>351</v>
-      </c>
-      <c r="D146" t="s" s="9">
-        <v>342</v>
-      </c>
-      <c r="E146" t="s" s="9">
-        <v>343</v>
-      </c>
-      <c r="F146" s="10"/>
-      <c r="G146" t="s" s="9">
-        <v>352</v>
-      </c>
-      <c r="H146" t="s" s="9">
-        <v>353</v>
+        <v>425</v>
+      </c>
+      <c r="I143" t="s" s="9">
+        <v>426</v>
       </c>
     </row>
   </sheetData>
